--- a/apps/database/json/studentModel.xlsx
+++ b/apps/database/json/studentModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="308">
   <si>
     <t>id</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>Hifz-Rivision</t>
+  </si>
+  <si>
+    <t>rfid_card</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,17 +1294,18 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,32 +1315,35 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1346,32 +1353,35 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2">
-        <v>1884051538</v>
+      <c r="D2">
+        <v>2578780</v>
       </c>
       <c r="E2" s="2">
         <v>1884051538</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>1884051538</v>
+      </c>
+      <c r="G2" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1381,33 +1391,36 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2">
-        <v>1835805025</v>
+      <c r="D3">
+        <v>2578774</v>
       </c>
       <c r="E3" s="2">
         <v>1835805025</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2">
+        <v>1835805025</v>
+      </c>
+      <c r="G3" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
       <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="str">
-        <f>LEFT(J2, 10) &amp; TEXT(VALUE(MID(J2, 11, 3)) + 1, "000") &amp; RIGHT(J2, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="str">
+        <f>LEFT(K2, 10) &amp; TEXT(VALUE(MID(K2, 11, 3)) + 1, "000") &amp; RIGHT(K2, 4)</f>
         <v>img/users/002.png</v>
       </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1417,33 +1430,36 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2">
-        <v>1995353603</v>
+      <c r="D4">
+        <v>2562879</v>
       </c>
       <c r="E4" s="2">
         <v>1995353603</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2">
+        <v>1995353603</v>
+      </c>
+      <c r="G4" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>56</v>
-      </c>
       <c r="I4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ref="J4:J67" si="0">LEFT(J3, 10) &amp; TEXT(VALUE(MID(J3, 11, 3)) + 1, "000") &amp; RIGHT(J3, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" ref="K4:K67" si="0">LEFT(K3, 10) &amp; TEXT(VALUE(MID(K3, 11, 3)) + 1, "000") &amp; RIGHT(K3, 4)</f>
         <v>img/users/003.png</v>
       </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1453,33 +1469,36 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2">
-        <v>1831957564</v>
+      <c r="D5">
+        <v>2562880</v>
       </c>
       <c r="E5" s="2">
         <v>1831957564</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2">
+        <v>1831957564</v>
+      </c>
+      <c r="G5" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
       <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="str">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>img/users/004.png</v>
       </c>
-      <c r="K5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1489,33 +1508,36 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1752333530</v>
+      <c r="D6">
+        <v>2564360</v>
       </c>
       <c r="E6" s="2">
         <v>1752333530</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2">
+        <v>1752333530</v>
+      </c>
+      <c r="G6" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
       <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="str">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>img/users/005.png</v>
       </c>
-      <c r="K6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1525,33 +1547,36 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
-        <v>1641702031</v>
+      <c r="D7">
+        <v>2564386</v>
       </c>
       <c r="E7" s="2">
         <v>1641702031</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2">
+        <v>1641702031</v>
+      </c>
+      <c r="G7" t="s">
         <v>298</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>56</v>
-      </c>
       <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="str">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>img/users/006.png</v>
       </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1561,33 +1586,36 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2">
-        <v>1851984464</v>
+      <c r="D8">
+        <v>2558131</v>
       </c>
       <c r="E8" s="2">
         <v>1851984464</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2">
+        <v>1851984464</v>
+      </c>
+      <c r="G8" t="s">
         <v>298</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
       <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="str">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>img/users/007.png</v>
       </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1597,33 +1625,33 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2">
-        <v>1849951203</v>
-      </c>
       <c r="E9" s="2">
         <v>1849951203</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2">
+        <v>1849951203</v>
+      </c>
+      <c r="G9" t="s">
         <v>298</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
       <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="str">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>img/users/008.png</v>
       </c>
-      <c r="K9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1633,33 +1661,36 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2">
-        <v>1634297141</v>
+      <c r="D10">
+        <v>2592298</v>
       </c>
       <c r="E10" s="2">
         <v>1634297141</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2">
+        <v>1634297141</v>
+      </c>
+      <c r="G10" t="s">
         <v>298</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
       <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="str">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>img/users/009.png</v>
       </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1669,33 +1700,36 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2">
-        <v>1331351865</v>
+      <c r="D11">
+        <v>2588448</v>
       </c>
       <c r="E11" s="2">
         <v>1331351865</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2">
+        <v>1331351865</v>
+      </c>
+      <c r="G11" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
       <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" t="str">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>img/users/010.png</v>
       </c>
-      <c r="K11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1705,33 +1739,36 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2">
-        <v>1897023927</v>
+      <c r="D12">
+        <v>2563091</v>
       </c>
       <c r="E12" s="2">
         <v>1897023927</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2">
+        <v>1897023927</v>
+      </c>
+      <c r="G12" t="s">
         <v>298</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" t="str">
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>img/users/011.png</v>
       </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1741,33 +1778,36 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2">
-        <v>1823755989</v>
+      <c r="D13">
+        <v>2592289</v>
       </c>
       <c r="E13" s="2">
         <v>1823755989</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2">
+        <v>1823755989</v>
+      </c>
+      <c r="G13" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
       <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="str">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>img/users/012.png</v>
       </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1777,33 +1817,36 @@
       <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2">
-        <v>1726967087</v>
+      <c r="D14">
+        <v>2558427</v>
       </c>
       <c r="E14" s="2">
         <v>1726967087</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2">
+        <v>1726967087</v>
+      </c>
+      <c r="G14" t="s">
         <v>298</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
       <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="str">
+        <v>56</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>img/users/013.png</v>
       </c>
-      <c r="K14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1813,33 +1856,33 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2">
-        <v>1827591641</v>
-      </c>
       <c r="E15" s="2">
         <v>1827591641</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2">
+        <v>1827591641</v>
+      </c>
+      <c r="G15" t="s">
         <v>298</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
       <c r="I15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" t="str">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>img/users/014.png</v>
       </c>
-      <c r="K15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1849,33 +1892,36 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2">
-        <v>1789006919</v>
+      <c r="D16">
+        <v>2567942</v>
       </c>
       <c r="E16" s="2">
         <v>1789006919</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2">
+        <v>1789006919</v>
+      </c>
+      <c r="G16" t="s">
         <v>298</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
       <c r="I16" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" t="str">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>img/users/015.png</v>
       </c>
-      <c r="K16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1885,33 +1931,33 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2">
-        <v>1880259541</v>
-      </c>
       <c r="E17" s="2">
         <v>1880259541</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2">
+        <v>1880259541</v>
+      </c>
+      <c r="G17" t="s">
         <v>298</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
       <c r="I17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" t="str">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>img/users/016.png</v>
       </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1921,33 +1967,33 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2">
-        <v>1869915878</v>
-      </c>
       <c r="E18" s="2">
         <v>1869915878</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2">
+        <v>1869915878</v>
+      </c>
+      <c r="G18" t="s">
         <v>298</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" t="str">
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>img/users/017.png</v>
       </c>
-      <c r="K18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1957,33 +2003,36 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2">
-        <v>1727801075</v>
+      <c r="D19">
+        <v>2567975</v>
       </c>
       <c r="E19" s="2">
         <v>1727801075</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2">
+        <v>1727801075</v>
+      </c>
+      <c r="G19" t="s">
         <v>299</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>57</v>
       </c>
-      <c r="I19" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" t="str">
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>img/users/018.png</v>
       </c>
-      <c r="K19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1993,33 +2042,36 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2">
-        <v>1848360451</v>
+      <c r="D20">
+        <v>2589673</v>
       </c>
       <c r="E20" s="2">
         <v>1848360451</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2">
+        <v>1848360451</v>
+      </c>
+      <c r="G20" t="s">
         <v>299</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
-      <c r="I20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" t="str">
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>img/users/019.png</v>
       </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2029,33 +2081,36 @@
       <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2">
-        <v>1843664251</v>
+      <c r="D21">
+        <v>2578846</v>
       </c>
       <c r="E21" s="2">
         <v>1843664251</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2">
+        <v>1843664251</v>
+      </c>
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
-        <v>56</v>
-      </c>
       <c r="I21" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" t="str">
+        <v>56</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>img/users/020.png</v>
       </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2065,33 +2120,36 @@
       <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="2">
-        <v>1852536828</v>
+      <c r="D22">
+        <v>2593968</v>
       </c>
       <c r="E22" s="2">
         <v>1852536828</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2">
+        <v>1852536828</v>
+      </c>
+      <c r="G22" t="s">
         <v>299</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
-        <v>56</v>
-      </c>
       <c r="I22" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" t="str">
+        <v>56</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>img/users/021.png</v>
       </c>
-      <c r="K22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2101,33 +2159,36 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="2">
-        <v>1705687918</v>
+      <c r="D23">
+        <v>2575588</v>
       </c>
       <c r="E23" s="2">
         <v>1705687918</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2">
+        <v>1705687918</v>
+      </c>
+      <c r="G23" t="s">
         <v>299</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" t="s">
-        <v>56</v>
-      </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" t="str">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>img/users/022.png</v>
       </c>
-      <c r="K23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2137,33 +2198,36 @@
       <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2">
-        <v>1836415644</v>
+      <c r="D24">
+        <v>2557834</v>
       </c>
       <c r="E24" s="2">
         <v>1836415644</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2">
+        <v>1836415644</v>
+      </c>
+      <c r="G24" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>6</v>
       </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
       <c r="I24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" t="str">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>img/users/023.png</v>
       </c>
-      <c r="K24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2173,33 +2237,36 @@
       <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="2">
-        <v>1871123427</v>
+      <c r="D25">
+        <v>2575620</v>
       </c>
       <c r="E25" s="2">
         <v>1871123427</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2">
+        <v>1871123427</v>
+      </c>
+      <c r="G25" t="s">
         <v>299</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>7</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>57</v>
       </c>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" t="str">
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>img/users/024.png</v>
       </c>
-      <c r="K25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2209,33 +2276,33 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="2">
-        <v>1897023153</v>
-      </c>
       <c r="E26" s="2">
         <v>1897023153</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2">
+        <v>1897023153</v>
+      </c>
+      <c r="G26" t="s">
         <v>299</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>8</v>
       </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
       <c r="I26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" t="str">
+        <v>56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>img/users/025.png</v>
       </c>
-      <c r="K26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2245,33 +2312,36 @@
       <c r="C27" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="2">
-        <v>1841901909</v>
+      <c r="D27">
+        <v>2567926</v>
       </c>
       <c r="E27" s="2">
         <v>1841901909</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2">
+        <v>1841901909</v>
+      </c>
+      <c r="G27" t="s">
         <v>299</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
-        <v>56</v>
-      </c>
       <c r="I27" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" t="str">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>img/users/026.png</v>
       </c>
-      <c r="K27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2281,33 +2351,36 @@
       <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="2">
-        <v>1896448272</v>
+      <c r="D28">
+        <v>2575500</v>
       </c>
       <c r="E28" s="2">
         <v>1896448272</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2">
+        <v>1896448272</v>
+      </c>
+      <c r="G28" t="s">
         <v>299</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" t="str">
+        <v>56</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>img/users/027.png</v>
       </c>
-      <c r="K28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2317,33 +2390,36 @@
       <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="2">
-        <v>1317681404</v>
+      <c r="D29">
+        <v>2555952</v>
       </c>
       <c r="E29" s="2">
         <v>1317681404</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2">
+        <v>1317681404</v>
+      </c>
+      <c r="G29" t="s">
         <v>299</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>11</v>
       </c>
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" t="str">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>img/users/028.png</v>
       </c>
-      <c r="K29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2353,33 +2429,36 @@
       <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="2">
-        <v>1843251725</v>
+      <c r="D30">
+        <v>2575629</v>
       </c>
       <c r="E30" s="2">
         <v>1843251725</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2">
+        <v>1843251725</v>
+      </c>
+      <c r="G30" t="s">
         <v>299</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>12</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>57</v>
       </c>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" t="str">
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>img/users/029.png</v>
       </c>
-      <c r="K30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2389,33 +2468,36 @@
       <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="2">
-        <v>1825114380</v>
+      <c r="D31">
+        <v>14176240</v>
       </c>
       <c r="E31" s="2">
         <v>1825114380</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2">
+        <v>1825114380</v>
+      </c>
+      <c r="G31" t="s">
         <v>299</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>13</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>57</v>
       </c>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" t="str">
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>img/users/030.png</v>
       </c>
-      <c r="K31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2425,33 +2507,33 @@
       <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="2">
-        <v>1855306061</v>
-      </c>
       <c r="E32" s="2">
         <v>1855306061</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2">
+        <v>1855306061</v>
+      </c>
+      <c r="G32" t="s">
         <v>299</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>14</v>
       </c>
-      <c r="H32" t="s">
-        <v>56</v>
-      </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" t="str">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>img/users/031.png</v>
       </c>
-      <c r="K32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2461,33 +2543,36 @@
       <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="2">
-        <v>1864658766</v>
+      <c r="D33">
+        <v>2583347</v>
       </c>
       <c r="E33" s="2">
         <v>1864658766</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2">
+        <v>1864658766</v>
+      </c>
+      <c r="G33" t="s">
         <v>299</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>56</v>
-      </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J33" t="str">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>img/users/032.png</v>
       </c>
-      <c r="K33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2497,33 +2582,36 @@
       <c r="C34" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="2">
-        <v>1608683233</v>
+      <c r="D34">
+        <v>2574055</v>
       </c>
       <c r="E34" s="2">
         <v>1608683233</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2">
+        <v>1608683233</v>
+      </c>
+      <c r="G34" t="s">
         <v>299</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>16</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>57</v>
       </c>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" t="str">
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>img/users/033.png</v>
       </c>
-      <c r="K34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2533,33 +2621,33 @@
       <c r="C35" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="2">
-        <v>1628153071</v>
-      </c>
       <c r="E35" s="2">
         <v>1628153071</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2">
+        <v>1628153071</v>
+      </c>
+      <c r="G35" t="s">
         <v>299</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>17</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>57</v>
       </c>
-      <c r="I35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" t="str">
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>img/users/034.png</v>
       </c>
-      <c r="K35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2569,33 +2657,36 @@
       <c r="C36" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="2">
-        <v>1817763469</v>
+      <c r="D36">
+        <v>2574022</v>
       </c>
       <c r="E36" s="2">
         <v>1817763469</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2">
+        <v>1817763469</v>
+      </c>
+      <c r="G36" t="s">
         <v>299</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>18</v>
       </c>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
       <c r="I36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" t="str">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>img/users/035.png</v>
       </c>
-      <c r="K36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2605,33 +2696,33 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="2">
-        <v>1818964658</v>
-      </c>
       <c r="E37" s="2">
         <v>1818964658</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2">
+        <v>1818964658</v>
+      </c>
+      <c r="G37" t="s">
         <v>299</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>19</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>57</v>
       </c>
-      <c r="I37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" t="str">
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>img/users/036.png</v>
       </c>
-      <c r="K37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2641,33 +2732,36 @@
       <c r="C38" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="2">
-        <v>1927185094</v>
+      <c r="D38">
+        <v>2574021</v>
       </c>
       <c r="E38" s="2">
         <v>1927185094</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2">
+        <v>1927185094</v>
+      </c>
+      <c r="G38" t="s">
         <v>299</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>20</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>57</v>
       </c>
-      <c r="I38" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" t="str">
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>img/users/037.png</v>
       </c>
-      <c r="K38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2677,33 +2771,36 @@
       <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D39" s="2">
-        <v>1880445868</v>
+      <c r="D39">
+        <v>2581162</v>
       </c>
       <c r="E39" s="2">
         <v>1880445868</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2">
+        <v>1880445868</v>
+      </c>
+      <c r="G39" t="s">
         <v>299</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>21</v>
       </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
       <c r="I39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" t="str">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>img/users/038.png</v>
       </c>
-      <c r="K39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2713,33 +2810,36 @@
       <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="2">
-        <v>1831190825</v>
+      <c r="D40">
+        <v>2555440</v>
       </c>
       <c r="E40" s="2">
         <v>1831190825</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2">
+        <v>1831190825</v>
+      </c>
+      <c r="G40" t="s">
         <v>299</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>22</v>
       </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
       <c r="I40" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" t="str">
+        <v>56</v>
+      </c>
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>img/users/039.png</v>
       </c>
-      <c r="K40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2749,33 +2849,36 @@
       <c r="C41" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="2">
-        <v>1823511776</v>
+      <c r="D41">
+        <v>2555534</v>
       </c>
       <c r="E41" s="2">
         <v>1823511776</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2">
+        <v>1823511776</v>
+      </c>
+      <c r="G41" t="s">
         <v>299</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>23</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>57</v>
       </c>
-      <c r="I41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="J41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>img/users/040.png</v>
       </c>
-      <c r="K41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2785,33 +2888,36 @@
       <c r="C42" t="s">
         <v>108</v>
       </c>
-      <c r="D42" s="2">
-        <v>1928577913</v>
+      <c r="D42">
+        <v>2575499</v>
       </c>
       <c r="E42" s="2">
         <v>1928577913</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2">
+        <v>1928577913</v>
+      </c>
+      <c r="G42" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>57</v>
       </c>
-      <c r="I42" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" t="str">
+      <c r="J42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>img/users/041.png</v>
       </c>
-      <c r="K42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2821,33 +2927,36 @@
       <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="2">
-        <v>1878239229</v>
+      <c r="D43">
+        <v>2555423</v>
       </c>
       <c r="E43" s="2">
         <v>1878239229</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2">
+        <v>1878239229</v>
+      </c>
+      <c r="G43" t="s">
         <v>300</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>2</v>
       </c>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
       <c r="I43" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" t="str">
+        <v>56</v>
+      </c>
+      <c r="J43" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>img/users/042.png</v>
       </c>
-      <c r="K43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2857,33 +2966,36 @@
       <c r="C44" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="2">
-        <v>1878239229</v>
+      <c r="D44">
+        <v>2575440</v>
       </c>
       <c r="E44" s="2">
         <v>1878239229</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2">
+        <v>1878239229</v>
+      </c>
+      <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>3</v>
       </c>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
       <c r="I44" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" t="str">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>53</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>img/users/043.png</v>
       </c>
-      <c r="K44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2893,33 +3005,33 @@
       <c r="C45" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="2">
-        <v>1735672273</v>
-      </c>
       <c r="E45" s="2">
         <v>1735672273</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2">
+        <v>1735672273</v>
+      </c>
+      <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>57</v>
       </c>
-      <c r="I45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" t="str">
+      <c r="J45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>img/users/044.png</v>
       </c>
-      <c r="K45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2929,33 +3041,36 @@
       <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="2">
-        <v>1789954498</v>
+      <c r="D46">
+        <v>2575466</v>
       </c>
       <c r="E46" s="2">
         <v>1789954498</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2">
+        <v>1789954498</v>
+      </c>
+      <c r="G46" t="s">
         <v>300</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>5</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>57</v>
       </c>
-      <c r="I46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" t="str">
+      <c r="J46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v>img/users/045.png</v>
       </c>
-      <c r="K46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2965,33 +3080,36 @@
       <c r="C47" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="2">
-        <v>1881736761</v>
+      <c r="D47">
+        <v>2555533</v>
       </c>
       <c r="E47" s="2">
         <v>1881736761</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2">
+        <v>1881736761</v>
+      </c>
+      <c r="G47" t="s">
         <v>300</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>6</v>
       </c>
-      <c r="H47" t="s">
-        <v>56</v>
-      </c>
       <c r="I47" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" t="str">
+        <v>56</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>img/users/046.png</v>
       </c>
-      <c r="K47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3001,33 +3119,36 @@
       <c r="C48" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="2">
-        <v>1611273155</v>
+      <c r="D48">
+        <v>2567081</v>
       </c>
       <c r="E48" s="2">
         <v>1611273155</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2">
+        <v>1611273155</v>
+      </c>
+      <c r="G48" t="s">
         <v>300</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>7</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>57</v>
       </c>
-      <c r="I48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="J48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="0"/>
         <v>img/users/047.png</v>
       </c>
-      <c r="K48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3037,33 +3158,36 @@
       <c r="C49" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="2">
-        <v>1850305660</v>
+      <c r="D49">
+        <v>2593115</v>
       </c>
       <c r="E49" s="2">
         <v>1850305660</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2">
+        <v>1850305660</v>
+      </c>
+      <c r="G49" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>8</v>
       </c>
-      <c r="H49" t="s">
-        <v>56</v>
-      </c>
       <c r="I49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" t="str">
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="0"/>
         <v>img/users/048.png</v>
       </c>
-      <c r="K49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3073,33 +3197,33 @@
       <c r="C50" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="2">
-        <v>1883135698</v>
-      </c>
       <c r="E50" s="2">
         <v>1883135698</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2">
+        <v>1883135698</v>
+      </c>
+      <c r="G50" t="s">
         <v>300</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>9</v>
       </c>
-      <c r="H50" t="s">
-        <v>56</v>
-      </c>
       <c r="I50" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" t="str">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s">
+        <v>53</v>
+      </c>
+      <c r="K50" t="str">
         <f t="shared" si="0"/>
         <v>img/users/049.png</v>
       </c>
-      <c r="K50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3109,33 +3233,36 @@
       <c r="C51" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="2">
-        <v>1857811084</v>
+      <c r="D51">
+        <v>2594223</v>
       </c>
       <c r="E51" s="2">
         <v>1857811084</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2">
+        <v>1857811084</v>
+      </c>
+      <c r="G51" t="s">
         <v>300</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>10</v>
       </c>
-      <c r="H51" t="s">
-        <v>56</v>
-      </c>
       <c r="I51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J51" t="str">
+        <v>56</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="0"/>
         <v>img/users/050.png</v>
       </c>
-      <c r="K51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3145,33 +3272,33 @@
       <c r="C52" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="2">
-        <v>1879733744</v>
-      </c>
       <c r="E52" s="2">
         <v>1879733744</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2">
+        <v>1879733744</v>
+      </c>
+      <c r="G52" t="s">
         <v>300</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>11</v>
       </c>
-      <c r="H52" t="s">
-        <v>56</v>
-      </c>
       <c r="I52" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" t="str">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" t="str">
         <f t="shared" si="0"/>
         <v>img/users/051.png</v>
       </c>
-      <c r="K52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3181,33 +3308,36 @@
       <c r="C53" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="2">
-        <v>1812104847</v>
+      <c r="D53">
+        <v>2594127</v>
       </c>
       <c r="E53" s="2">
         <v>1812104847</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2">
+        <v>1812104847</v>
+      </c>
+      <c r="G53" t="s">
         <v>300</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>12</v>
       </c>
-      <c r="H53" t="s">
-        <v>56</v>
-      </c>
       <c r="I53" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" t="str">
+        <v>56</v>
+      </c>
+      <c r="J53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" t="str">
         <f t="shared" si="0"/>
         <v>img/users/052.png</v>
       </c>
-      <c r="K53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3217,33 +3347,36 @@
       <c r="C54" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="2">
-        <v>1836092834</v>
+      <c r="D54">
+        <v>2594146</v>
       </c>
       <c r="E54" s="2">
         <v>1836092834</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2">
+        <v>1836092834</v>
+      </c>
+      <c r="G54" t="s">
         <v>300</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>13</v>
       </c>
-      <c r="H54" t="s">
-        <v>56</v>
-      </c>
       <c r="I54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" t="str">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" t="str">
         <f t="shared" si="0"/>
         <v>img/users/053.png</v>
       </c>
-      <c r="K54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3253,33 +3386,36 @@
       <c r="C55" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="2">
-        <v>1818768867</v>
+      <c r="D55">
+        <v>2559114</v>
       </c>
       <c r="E55" s="2">
         <v>1818768867</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2">
+        <v>1818768867</v>
+      </c>
+      <c r="G55" t="s">
         <v>300</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>14</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>57</v>
       </c>
-      <c r="I55" t="s">
-        <v>53</v>
-      </c>
-      <c r="J55" t="str">
+      <c r="J55" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="0"/>
         <v>img/users/054.png</v>
       </c>
-      <c r="K55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3289,33 +3425,36 @@
       <c r="C56" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="2">
-        <v>1846293166</v>
+      <c r="D56">
+        <v>2570310</v>
       </c>
       <c r="E56" s="2">
         <v>1846293166</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2">
+        <v>1846293166</v>
+      </c>
+      <c r="G56" t="s">
         <v>300</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>15</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>57</v>
       </c>
-      <c r="I56" t="s">
-        <v>53</v>
-      </c>
-      <c r="J56" t="str">
+      <c r="J56" t="s">
+        <v>53</v>
+      </c>
+      <c r="K56" t="str">
         <f t="shared" si="0"/>
         <v>img/users/055.png</v>
       </c>
-      <c r="K56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3325,33 +3464,36 @@
       <c r="C57" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="2">
-        <v>1814923474</v>
+      <c r="D57">
+        <v>2575604</v>
       </c>
       <c r="E57" s="2">
         <v>1814923474</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2">
+        <v>1814923474</v>
+      </c>
+      <c r="G57" t="s">
         <v>300</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>16</v>
       </c>
-      <c r="H57" t="s">
-        <v>56</v>
-      </c>
       <c r="I57" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" t="str">
+        <v>56</v>
+      </c>
+      <c r="J57" t="s">
+        <v>53</v>
+      </c>
+      <c r="K57" t="str">
         <f t="shared" si="0"/>
         <v>img/users/056.png</v>
       </c>
-      <c r="K57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3361,33 +3503,33 @@
       <c r="C58" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="2">
-        <v>1863890069</v>
-      </c>
       <c r="E58" s="2">
         <v>1863890069</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2">
+        <v>1863890069</v>
+      </c>
+      <c r="G58" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>17</v>
       </c>
-      <c r="H58" t="s">
-        <v>56</v>
-      </c>
       <c r="I58" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" t="str">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="0"/>
         <v>img/users/057.png</v>
       </c>
-      <c r="K58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3397,33 +3539,36 @@
       <c r="C59" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="2">
-        <v>1827427342</v>
+      <c r="D59">
+        <v>2575556</v>
       </c>
       <c r="E59" s="2">
         <v>1827427342</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2">
+        <v>1827427342</v>
+      </c>
+      <c r="G59" t="s">
         <v>300</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>18</v>
       </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
       <c r="I59" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" t="str">
+        <v>56</v>
+      </c>
+      <c r="J59" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" t="str">
         <f t="shared" si="0"/>
         <v>img/users/058.png</v>
       </c>
-      <c r="K59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3433,33 +3578,33 @@
       <c r="C60" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="2">
-        <v>1625317884</v>
-      </c>
       <c r="E60" s="2">
         <v>1625317884</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2">
+        <v>1625317884</v>
+      </c>
+      <c r="G60" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>19</v>
       </c>
-      <c r="H60" t="s">
-        <v>56</v>
-      </c>
       <c r="I60" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" t="str">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K60" t="str">
         <f t="shared" si="0"/>
         <v>img/users/059.png</v>
       </c>
-      <c r="K60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3469,33 +3614,33 @@
       <c r="C61" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="2">
-        <v>1840528749</v>
-      </c>
       <c r="E61" s="2">
         <v>1840528749</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2">
+        <v>1840528749</v>
+      </c>
+      <c r="G61" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>20</v>
       </c>
-      <c r="H61" t="s">
-        <v>56</v>
-      </c>
       <c r="I61" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" t="str">
+        <v>56</v>
+      </c>
+      <c r="J61" t="s">
+        <v>53</v>
+      </c>
+      <c r="K61" t="str">
         <f t="shared" si="0"/>
         <v>img/users/060.png</v>
       </c>
-      <c r="K61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3505,33 +3650,36 @@
       <c r="C62" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="2">
-        <v>1869915878</v>
+      <c r="D62">
+        <v>2188558</v>
       </c>
       <c r="E62" s="2">
         <v>1869915878</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2">
+        <v>1869915878</v>
+      </c>
+      <c r="G62" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>21</v>
       </c>
-      <c r="H62" t="s">
-        <v>56</v>
-      </c>
       <c r="I62" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" t="str">
+        <v>56</v>
+      </c>
+      <c r="J62" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" t="str">
         <f t="shared" si="0"/>
         <v>img/users/061.png</v>
       </c>
-      <c r="K62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3541,33 +3689,36 @@
       <c r="C63" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="2">
-        <v>1848360451</v>
+      <c r="D63">
+        <v>2583354</v>
       </c>
       <c r="E63" s="2">
         <v>1848360451</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2">
+        <v>1848360451</v>
+      </c>
+      <c r="G63" t="s">
         <v>301</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>1</v>
       </c>
-      <c r="H63" t="s">
-        <v>56</v>
-      </c>
       <c r="I63" t="s">
-        <v>53</v>
-      </c>
-      <c r="J63" t="str">
+        <v>56</v>
+      </c>
+      <c r="J63" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" t="str">
         <f t="shared" si="0"/>
         <v>img/users/062.png</v>
       </c>
-      <c r="K63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3577,33 +3728,36 @@
       <c r="C64" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="2">
-        <v>1818786657</v>
+      <c r="D64">
+        <v>2556120</v>
       </c>
       <c r="E64" s="2">
         <v>1818786657</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2">
+        <v>1818786657</v>
+      </c>
+      <c r="G64" t="s">
         <v>301</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>2</v>
       </c>
-      <c r="H64" t="s">
-        <v>56</v>
-      </c>
       <c r="I64" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" t="str">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s">
+        <v>53</v>
+      </c>
+      <c r="K64" t="str">
         <f t="shared" si="0"/>
         <v>img/users/063.png</v>
       </c>
-      <c r="K64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3613,33 +3767,36 @@
       <c r="C65" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="2">
-        <v>1868402680</v>
+      <c r="D65">
+        <v>2583322</v>
       </c>
       <c r="E65" s="2">
         <v>1868402680</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2">
+        <v>1868402680</v>
+      </c>
+      <c r="G65" t="s">
         <v>301</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>3</v>
       </c>
-      <c r="H65" t="s">
-        <v>56</v>
-      </c>
       <c r="I65" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" t="str">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s">
+        <v>53</v>
+      </c>
+      <c r="K65" t="str">
         <f t="shared" si="0"/>
         <v>img/users/064.png</v>
       </c>
-      <c r="K65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3649,33 +3806,33 @@
       <c r="C66" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="2">
-        <v>1832252077</v>
-      </c>
       <c r="E66" s="2">
         <v>1832252077</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2">
+        <v>1832252077</v>
+      </c>
+      <c r="G66" t="s">
         <v>301</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>4</v>
       </c>
-      <c r="H66" t="s">
-        <v>56</v>
-      </c>
       <c r="I66" t="s">
-        <v>53</v>
-      </c>
-      <c r="J66" t="str">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" t="str">
         <f t="shared" si="0"/>
         <v>img/users/065.png</v>
       </c>
-      <c r="K66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3685,33 +3842,33 @@
       <c r="C67" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="2">
-        <v>1958682817</v>
-      </c>
       <c r="E67" s="2">
         <v>1958682817</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2">
+        <v>1958682817</v>
+      </c>
+      <c r="G67" t="s">
         <v>301</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>5</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>57</v>
       </c>
-      <c r="I67" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" t="str">
+      <c r="J67" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" t="str">
         <f t="shared" si="0"/>
         <v>img/users/066.png</v>
       </c>
-      <c r="K67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3721,33 +3878,33 @@
       <c r="C68" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="2">
-        <v>1838671081</v>
-      </c>
       <c r="E68" s="2">
         <v>1838671081</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2">
+        <v>1838671081</v>
+      </c>
+      <c r="G68" t="s">
         <v>301</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>6</v>
       </c>
-      <c r="H68" t="s">
-        <v>56</v>
-      </c>
       <c r="I68" t="s">
-        <v>53</v>
-      </c>
-      <c r="J68" t="str">
-        <f t="shared" ref="J68:J131" si="1">LEFT(J67, 10) &amp; TEXT(VALUE(MID(J67, 11, 3)) + 1, "000") &amp; RIGHT(J67, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="J68" t="s">
+        <v>53</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" ref="K68:K131" si="1">LEFT(K67, 10) &amp; TEXT(VALUE(MID(K67, 11, 3)) + 1, "000") &amp; RIGHT(K67, 4)</f>
         <v>img/users/067.png</v>
       </c>
-      <c r="K68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3757,33 +3914,33 @@
       <c r="C69" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="2">
-        <v>1882451699</v>
-      </c>
       <c r="E69" s="2">
         <v>1882451699</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2">
+        <v>1882451699</v>
+      </c>
+      <c r="G69" t="s">
         <v>301</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>7</v>
       </c>
-      <c r="H69" t="s">
-        <v>56</v>
-      </c>
       <c r="I69" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" t="str">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s">
+        <v>53</v>
+      </c>
+      <c r="K69" t="str">
         <f t="shared" si="1"/>
         <v>img/users/068.png</v>
       </c>
-      <c r="K69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3793,33 +3950,33 @@
       <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="2">
-        <v>1834923104</v>
-      </c>
       <c r="E70" s="2">
         <v>1834923104</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2">
+        <v>1834923104</v>
+      </c>
+      <c r="G70" t="s">
         <v>301</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>8</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>57</v>
       </c>
-      <c r="I70" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" t="str">
+      <c r="J70" t="s">
+        <v>53</v>
+      </c>
+      <c r="K70" t="str">
         <f t="shared" si="1"/>
         <v>img/users/069.png</v>
       </c>
-      <c r="K70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3829,33 +3986,36 @@
       <c r="C71" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="2">
-        <v>1321874768</v>
+      <c r="D71">
+        <v>2556670</v>
       </c>
       <c r="E71" s="2">
         <v>1321874768</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2">
+        <v>1321874768</v>
+      </c>
+      <c r="G71" t="s">
         <v>301</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>9</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>57</v>
       </c>
-      <c r="I71" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" t="str">
+      <c r="J71" t="s">
+        <v>53</v>
+      </c>
+      <c r="K71" t="str">
         <f t="shared" si="1"/>
         <v>img/users/070.png</v>
       </c>
-      <c r="K71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3865,33 +4025,36 @@
       <c r="C72" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="2">
-        <v>1846291945</v>
+      <c r="D72">
+        <v>2561597</v>
       </c>
       <c r="E72" s="2">
         <v>1846291945</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2">
+        <v>1846291945</v>
+      </c>
+      <c r="G72" t="s">
         <v>301</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>10</v>
       </c>
-      <c r="H72" t="s">
-        <v>56</v>
-      </c>
       <c r="I72" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" t="str">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s">
+        <v>53</v>
+      </c>
+      <c r="K72" t="str">
         <f t="shared" si="1"/>
         <v>img/users/071.png</v>
       </c>
-      <c r="K72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3901,33 +4064,36 @@
       <c r="C73" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="2">
-        <v>1647450850</v>
+      <c r="D73">
+        <v>2564260</v>
       </c>
       <c r="E73" s="2">
         <v>1647450850</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2">
+        <v>1647450850</v>
+      </c>
+      <c r="G73" t="s">
         <v>301</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>11</v>
       </c>
-      <c r="H73" t="s">
-        <v>56</v>
-      </c>
       <c r="I73" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" t="str">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s">
+        <v>53</v>
+      </c>
+      <c r="K73" t="str">
         <f t="shared" si="1"/>
         <v>img/users/072.png</v>
       </c>
-      <c r="K73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3937,33 +4103,36 @@
       <c r="C74" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="2">
-        <v>1862033668</v>
+      <c r="D74">
+        <v>2570313</v>
       </c>
       <c r="E74" s="2">
         <v>1862033668</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2">
+        <v>1862033668</v>
+      </c>
+      <c r="G74" t="s">
         <v>301</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>12</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>57</v>
       </c>
-      <c r="I74" t="s">
-        <v>53</v>
-      </c>
-      <c r="J74" t="str">
+      <c r="J74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74" t="str">
         <f t="shared" si="1"/>
         <v>img/users/073.png</v>
       </c>
-      <c r="K74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3973,33 +4142,36 @@
       <c r="C75" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="2">
-        <v>1935833923</v>
+      <c r="D75">
+        <v>2556498</v>
       </c>
       <c r="E75" s="2">
         <v>1935833923</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2">
+        <v>1935833923</v>
+      </c>
+      <c r="G75" t="s">
         <v>302</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>1</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>57</v>
       </c>
-      <c r="I75" t="s">
-        <v>53</v>
-      </c>
-      <c r="J75" t="str">
+      <c r="J75" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75" t="str">
         <f t="shared" si="1"/>
         <v>img/users/074.png</v>
       </c>
-      <c r="K75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4009,33 +4181,36 @@
       <c r="C76" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="2">
-        <v>1849611309</v>
+      <c r="D76">
+        <v>2552413</v>
       </c>
       <c r="E76" s="2">
         <v>1849611309</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2">
+        <v>1849611309</v>
+      </c>
+      <c r="G76" t="s">
         <v>302</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>2</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>57</v>
       </c>
-      <c r="I76" t="s">
-        <v>53</v>
-      </c>
-      <c r="J76" t="str">
+      <c r="J76" t="s">
+        <v>53</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="1"/>
         <v>img/users/075.png</v>
       </c>
-      <c r="K76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4045,33 +4220,36 @@
       <c r="C77" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="2">
-        <v>1836400332</v>
+      <c r="D77">
+        <v>2580996</v>
       </c>
       <c r="E77" s="2">
         <v>1836400332</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2">
+        <v>1836400332</v>
+      </c>
+      <c r="G77" t="s">
         <v>302</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>3</v>
       </c>
-      <c r="H77" t="s">
-        <v>56</v>
-      </c>
       <c r="I77" t="s">
-        <v>53</v>
-      </c>
-      <c r="J77" t="str">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s">
+        <v>53</v>
+      </c>
+      <c r="K77" t="str">
         <f t="shared" si="1"/>
         <v>img/users/076.png</v>
       </c>
-      <c r="K77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4081,33 +4259,36 @@
       <c r="C78" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="2">
-        <v>1945689349</v>
+      <c r="D78">
+        <v>2561630</v>
       </c>
       <c r="E78" s="2">
         <v>1945689349</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2">
+        <v>1945689349</v>
+      </c>
+      <c r="G78" t="s">
         <v>302</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>4</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>57</v>
       </c>
-      <c r="I78" t="s">
-        <v>53</v>
-      </c>
-      <c r="J78" t="str">
+      <c r="J78" t="s">
+        <v>53</v>
+      </c>
+      <c r="K78" t="str">
         <f t="shared" si="1"/>
         <v>img/users/077.png</v>
       </c>
-      <c r="K78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4117,33 +4298,36 @@
       <c r="C79" t="s">
         <v>176</v>
       </c>
-      <c r="D79" s="2">
-        <v>1874452576</v>
+      <c r="D79">
+        <v>2559757</v>
       </c>
       <c r="E79" s="2">
         <v>1874452576</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2">
+        <v>1874452576</v>
+      </c>
+      <c r="G79" t="s">
         <v>302</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>5</v>
       </c>
-      <c r="H79" t="s">
-        <v>56</v>
-      </c>
       <c r="I79" t="s">
-        <v>53</v>
-      </c>
-      <c r="J79" t="str">
+        <v>56</v>
+      </c>
+      <c r="J79" t="s">
+        <v>53</v>
+      </c>
+      <c r="K79" t="str">
         <f t="shared" si="1"/>
         <v>img/users/078.png</v>
       </c>
-      <c r="K79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4153,33 +4337,33 @@
       <c r="C80" t="s">
         <v>178</v>
       </c>
-      <c r="D80" s="2">
-        <v>1738815380</v>
-      </c>
       <c r="E80" s="2">
         <v>1738815380</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2">
+        <v>1738815380</v>
+      </c>
+      <c r="G80" t="s">
         <v>302</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>6</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>57</v>
       </c>
-      <c r="I80" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" t="str">
+      <c r="J80" t="s">
+        <v>53</v>
+      </c>
+      <c r="K80" t="str">
         <f t="shared" si="1"/>
         <v>img/users/079.png</v>
       </c>
-      <c r="K80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4189,33 +4373,36 @@
       <c r="C81" t="s">
         <v>180</v>
       </c>
-      <c r="D81" s="2">
-        <v>1772040282</v>
+      <c r="D81">
+        <v>2575515</v>
       </c>
       <c r="E81" s="2">
         <v>1772040282</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2">
+        <v>1772040282</v>
+      </c>
+      <c r="G81" t="s">
         <v>302</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>7</v>
       </c>
-      <c r="H81" t="s">
-        <v>56</v>
-      </c>
       <c r="I81" t="s">
-        <v>53</v>
-      </c>
-      <c r="J81" t="str">
+        <v>56</v>
+      </c>
+      <c r="J81" t="s">
+        <v>53</v>
+      </c>
+      <c r="K81" t="str">
         <f t="shared" si="1"/>
         <v>img/users/080.png</v>
       </c>
-      <c r="K81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4225,33 +4412,33 @@
       <c r="C82" t="s">
         <v>182</v>
       </c>
-      <c r="D82" s="2">
-        <v>1849951203</v>
-      </c>
       <c r="E82" s="2">
         <v>1849951203</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2">
+        <v>1849951203</v>
+      </c>
+      <c r="G82" t="s">
         <v>302</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>8</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>57</v>
       </c>
-      <c r="I82" t="s">
-        <v>53</v>
-      </c>
-      <c r="J82" t="str">
+      <c r="J82" t="s">
+        <v>53</v>
+      </c>
+      <c r="K82" t="str">
         <f t="shared" si="1"/>
         <v>img/users/081.png</v>
       </c>
-      <c r="K82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4261,33 +4448,33 @@
       <c r="C83" t="s">
         <v>184</v>
       </c>
-      <c r="D83" s="2">
-        <v>1866568171</v>
-      </c>
       <c r="E83" s="2">
         <v>1866568171</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2">
+        <v>1866568171</v>
+      </c>
+      <c r="G83" t="s">
         <v>302</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>9</v>
       </c>
-      <c r="H83" t="s">
-        <v>56</v>
-      </c>
       <c r="I83" t="s">
-        <v>53</v>
-      </c>
-      <c r="J83" t="str">
+        <v>56</v>
+      </c>
+      <c r="J83" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83" t="str">
         <f t="shared" si="1"/>
         <v>img/users/082.png</v>
       </c>
-      <c r="K83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4297,33 +4484,36 @@
       <c r="C84" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="2">
-        <v>1882795309</v>
+      <c r="D84">
+        <v>2574039</v>
       </c>
       <c r="E84" s="2">
         <v>1882795309</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2">
+        <v>1882795309</v>
+      </c>
+      <c r="G84" t="s">
         <v>302</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>10</v>
       </c>
-      <c r="H84" t="s">
-        <v>56</v>
-      </c>
       <c r="I84" t="s">
-        <v>53</v>
-      </c>
-      <c r="J84" t="str">
+        <v>56</v>
+      </c>
+      <c r="J84" t="s">
+        <v>53</v>
+      </c>
+      <c r="K84" t="str">
         <f t="shared" si="1"/>
         <v>img/users/083.png</v>
       </c>
-      <c r="K84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4333,33 +4523,33 @@
       <c r="C85" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="2">
-        <v>1836093114</v>
-      </c>
       <c r="E85" s="2">
         <v>1836093114</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2">
+        <v>1836093114</v>
+      </c>
+      <c r="G85" t="s">
         <v>303</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>1</v>
       </c>
-      <c r="H85" t="s">
-        <v>56</v>
-      </c>
       <c r="I85" t="s">
-        <v>53</v>
-      </c>
-      <c r="J85" t="str">
+        <v>56</v>
+      </c>
+      <c r="J85" t="s">
+        <v>53</v>
+      </c>
+      <c r="K85" t="str">
         <f t="shared" si="1"/>
         <v>img/users/084.png</v>
       </c>
-      <c r="K85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4369,33 +4559,36 @@
       <c r="C86" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="2">
-        <v>1938507092</v>
+      <c r="D86">
+        <v>2575506</v>
       </c>
       <c r="E86" s="2">
         <v>1938507092</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2">
+        <v>1938507092</v>
+      </c>
+      <c r="G86" t="s">
         <v>303</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>2</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>57</v>
       </c>
-      <c r="I86" t="s">
-        <v>53</v>
-      </c>
-      <c r="J86" t="str">
+      <c r="J86" t="s">
+        <v>53</v>
+      </c>
+      <c r="K86" t="str">
         <f t="shared" si="1"/>
         <v>img/users/085.png</v>
       </c>
-      <c r="K86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4405,33 +4598,36 @@
       <c r="C87" t="s">
         <v>192</v>
       </c>
-      <c r="D87" s="2">
-        <v>1611273155</v>
+      <c r="D87">
+        <v>2574054</v>
       </c>
       <c r="E87" s="2">
         <v>1611273155</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2">
+        <v>1611273155</v>
+      </c>
+      <c r="G87" t="s">
         <v>303</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>3</v>
       </c>
-      <c r="H87" t="s">
-        <v>56</v>
-      </c>
       <c r="I87" t="s">
-        <v>53</v>
-      </c>
-      <c r="J87" t="str">
+        <v>56</v>
+      </c>
+      <c r="J87" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87" t="str">
         <f t="shared" si="1"/>
         <v>img/users/086.png</v>
       </c>
-      <c r="K87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4441,33 +4637,36 @@
       <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="D88" s="2">
-        <v>1830220161</v>
+      <c r="D88">
+        <v>2573807</v>
       </c>
       <c r="E88" s="2">
         <v>1830220161</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2">
+        <v>1830220161</v>
+      </c>
+      <c r="G88" t="s">
         <v>304</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>1</v>
       </c>
-      <c r="H88" t="s">
-        <v>56</v>
-      </c>
       <c r="I88" t="s">
-        <v>53</v>
-      </c>
-      <c r="J88" t="str">
+        <v>56</v>
+      </c>
+      <c r="J88" t="s">
+        <v>53</v>
+      </c>
+      <c r="K88" t="str">
         <f t="shared" si="1"/>
         <v>img/users/087.png</v>
       </c>
-      <c r="K88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4477,33 +4676,33 @@
       <c r="C89" t="s">
         <v>196</v>
       </c>
-      <c r="D89" s="2">
-        <v>1850180592</v>
-      </c>
       <c r="E89" s="2">
         <v>1850180592</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2">
+        <v>1850180592</v>
+      </c>
+      <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>2</v>
       </c>
-      <c r="H89" t="s">
-        <v>56</v>
-      </c>
       <c r="I89" t="s">
-        <v>53</v>
-      </c>
-      <c r="J89" t="str">
+        <v>56</v>
+      </c>
+      <c r="J89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89" t="str">
         <f t="shared" si="1"/>
         <v>img/users/088.png</v>
       </c>
-      <c r="K89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4513,33 +4712,36 @@
       <c r="C90" t="s">
         <v>198</v>
       </c>
-      <c r="D90" s="2">
-        <v>1845812862</v>
+      <c r="D90">
+        <v>2554747</v>
       </c>
       <c r="E90" s="2">
         <v>1845812862</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2">
+        <v>1845812862</v>
+      </c>
+      <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>3</v>
       </c>
-      <c r="H90" t="s">
-        <v>56</v>
-      </c>
       <c r="I90" t="s">
-        <v>53</v>
-      </c>
-      <c r="J90" t="str">
+        <v>56</v>
+      </c>
+      <c r="J90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K90" t="str">
         <f t="shared" si="1"/>
         <v>img/users/089.png</v>
       </c>
-      <c r="K90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4549,33 +4751,36 @@
       <c r="C91" t="s">
         <v>200</v>
       </c>
-      <c r="D91" s="2">
-        <v>1994001153</v>
+      <c r="D91">
+        <v>2579063</v>
       </c>
       <c r="E91" s="2">
         <v>1994001153</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2">
+        <v>1994001153</v>
+      </c>
+      <c r="G91" t="s">
         <v>304</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>4</v>
       </c>
-      <c r="H91" t="s">
-        <v>56</v>
-      </c>
       <c r="I91" t="s">
-        <v>53</v>
-      </c>
-      <c r="J91" t="str">
+        <v>56</v>
+      </c>
+      <c r="J91" t="s">
+        <v>53</v>
+      </c>
+      <c r="K91" t="str">
         <f t="shared" si="1"/>
         <v>img/users/090.png</v>
       </c>
-      <c r="K91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4585,33 +4790,33 @@
       <c r="C92" t="s">
         <v>202</v>
       </c>
-      <c r="D92" s="2">
-        <v>1812575333</v>
-      </c>
       <c r="E92" s="2">
         <v>1812575333</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2">
+        <v>1812575333</v>
+      </c>
+      <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>5</v>
       </c>
-      <c r="H92" t="s">
-        <v>56</v>
-      </c>
       <c r="I92" t="s">
-        <v>53</v>
-      </c>
-      <c r="J92" t="str">
+        <v>56</v>
+      </c>
+      <c r="J92" t="s">
+        <v>53</v>
+      </c>
+      <c r="K92" t="str">
         <f t="shared" si="1"/>
         <v>img/users/091.png</v>
       </c>
-      <c r="K92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4621,33 +4826,36 @@
       <c r="C93" t="s">
         <v>204</v>
       </c>
-      <c r="D93" s="2">
-        <v>1311817653</v>
+      <c r="D93">
+        <v>2579047</v>
       </c>
       <c r="E93" s="2">
         <v>1311817653</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2">
+        <v>1311817653</v>
+      </c>
+      <c r="G93" t="s">
         <v>304</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>6</v>
       </c>
-      <c r="H93" t="s">
-        <v>56</v>
-      </c>
       <c r="I93" t="s">
-        <v>53</v>
-      </c>
-      <c r="J93" t="str">
+        <v>56</v>
+      </c>
+      <c r="J93" t="s">
+        <v>53</v>
+      </c>
+      <c r="K93" t="str">
         <f t="shared" si="1"/>
         <v>img/users/092.png</v>
       </c>
-      <c r="K93" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4657,33 +4865,33 @@
       <c r="C94" t="s">
         <v>206</v>
       </c>
-      <c r="D94" s="2">
-        <v>1843231615</v>
-      </c>
       <c r="E94" s="2">
         <v>1843231615</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2">
+        <v>1843231615</v>
+      </c>
+      <c r="G94" t="s">
         <v>304</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>7</v>
       </c>
-      <c r="H94" t="s">
-        <v>56</v>
-      </c>
       <c r="I94" t="s">
-        <v>53</v>
-      </c>
-      <c r="J94" t="str">
+        <v>56</v>
+      </c>
+      <c r="J94" t="s">
+        <v>53</v>
+      </c>
+      <c r="K94" t="str">
         <f t="shared" si="1"/>
         <v>img/users/093.png</v>
       </c>
-      <c r="K94" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4693,33 +4901,33 @@
       <c r="C95" t="s">
         <v>208</v>
       </c>
-      <c r="D95" s="2">
-        <v>1840040759</v>
-      </c>
       <c r="E95" s="2">
         <v>1840040759</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2">
+        <v>1840040759</v>
+      </c>
+      <c r="G95" t="s">
         <v>304</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>8</v>
       </c>
-      <c r="H95" t="s">
-        <v>56</v>
-      </c>
       <c r="I95" t="s">
-        <v>53</v>
-      </c>
-      <c r="J95" t="str">
+        <v>56</v>
+      </c>
+      <c r="J95" t="s">
+        <v>53</v>
+      </c>
+      <c r="K95" t="str">
         <f t="shared" si="1"/>
         <v>img/users/094.png</v>
       </c>
-      <c r="K95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4729,33 +4937,33 @@
       <c r="C96" t="s">
         <v>210</v>
       </c>
-      <c r="D96" s="2">
-        <v>1892603020</v>
-      </c>
       <c r="E96" s="2">
         <v>1892603020</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2">
+        <v>1892603020</v>
+      </c>
+      <c r="G96" t="s">
         <v>304</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>9</v>
       </c>
-      <c r="H96" t="s">
-        <v>56</v>
-      </c>
       <c r="I96" t="s">
-        <v>53</v>
-      </c>
-      <c r="J96" t="str">
+        <v>56</v>
+      </c>
+      <c r="J96" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" t="str">
         <f t="shared" si="1"/>
         <v>img/users/095.png</v>
       </c>
-      <c r="K96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4765,33 +4973,33 @@
       <c r="C97" t="s">
         <v>212</v>
       </c>
-      <c r="D97" s="2">
-        <v>1739291950</v>
-      </c>
       <c r="E97" s="2">
         <v>1739291950</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2">
+        <v>1739291950</v>
+      </c>
+      <c r="G97" t="s">
         <v>304</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>10</v>
       </c>
-      <c r="H97" t="s">
-        <v>56</v>
-      </c>
       <c r="I97" t="s">
-        <v>53</v>
-      </c>
-      <c r="J97" t="str">
+        <v>56</v>
+      </c>
+      <c r="J97" t="s">
+        <v>53</v>
+      </c>
+      <c r="K97" t="str">
         <f t="shared" si="1"/>
         <v>img/users/096.png</v>
       </c>
-      <c r="K97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4801,33 +5009,36 @@
       <c r="C98" t="s">
         <v>214</v>
       </c>
-      <c r="D98" s="2">
-        <v>1319212955</v>
+      <c r="D98">
+        <v>2581306</v>
       </c>
       <c r="E98" s="2">
         <v>1319212955</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2">
+        <v>1319212955</v>
+      </c>
+      <c r="G98" t="s">
         <v>304</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>11</v>
       </c>
-      <c r="H98" t="s">
-        <v>56</v>
-      </c>
       <c r="I98" t="s">
-        <v>53</v>
-      </c>
-      <c r="J98" t="str">
+        <v>56</v>
+      </c>
+      <c r="J98" t="s">
+        <v>53</v>
+      </c>
+      <c r="K98" t="str">
         <f t="shared" si="1"/>
         <v>img/users/097.png</v>
       </c>
-      <c r="K98" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4837,33 +5048,36 @@
       <c r="C99" t="s">
         <v>216</v>
       </c>
-      <c r="D99" s="2">
-        <v>1308515023</v>
+      <c r="D99">
+        <v>2578928</v>
       </c>
       <c r="E99" s="2">
         <v>1308515023</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2">
+        <v>1308515023</v>
+      </c>
+      <c r="G99" t="s">
         <v>304</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>12</v>
       </c>
-      <c r="H99" t="s">
-        <v>56</v>
-      </c>
       <c r="I99" t="s">
-        <v>53</v>
-      </c>
-      <c r="J99" t="str">
+        <v>56</v>
+      </c>
+      <c r="J99" t="s">
+        <v>53</v>
+      </c>
+      <c r="K99" t="str">
         <f t="shared" si="1"/>
         <v>img/users/098.png</v>
       </c>
-      <c r="K99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4873,33 +5087,33 @@
       <c r="C100" t="s">
         <v>218</v>
       </c>
-      <c r="D100" s="2">
-        <v>1885145354</v>
-      </c>
       <c r="E100" s="2">
         <v>1885145354</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2">
+        <v>1885145354</v>
+      </c>
+      <c r="G100" t="s">
         <v>304</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>13</v>
       </c>
-      <c r="H100" t="s">
-        <v>56</v>
-      </c>
       <c r="I100" t="s">
-        <v>53</v>
-      </c>
-      <c r="J100" t="str">
+        <v>56</v>
+      </c>
+      <c r="J100" t="s">
+        <v>53</v>
+      </c>
+      <c r="K100" t="str">
         <f t="shared" si="1"/>
         <v>img/users/099.png</v>
       </c>
-      <c r="K100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4909,33 +5123,36 @@
       <c r="C101" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="2">
-        <v>1817121031</v>
+      <c r="D101">
+        <v>2555518</v>
       </c>
       <c r="E101" s="2">
         <v>1817121031</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2">
+        <v>1817121031</v>
+      </c>
+      <c r="G101" t="s">
         <v>304</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>14</v>
       </c>
-      <c r="H101" t="s">
-        <v>56</v>
-      </c>
       <c r="I101" t="s">
-        <v>53</v>
-      </c>
-      <c r="J101" t="str">
+        <v>56</v>
+      </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101" t="str">
         <f t="shared" si="1"/>
         <v>img/users/100.png</v>
       </c>
-      <c r="K101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4945,33 +5162,33 @@
       <c r="C102" t="s">
         <v>222</v>
       </c>
-      <c r="D102" s="2">
-        <v>1890696334</v>
-      </c>
       <c r="E102" s="2">
         <v>1890696334</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2">
+        <v>1890696334</v>
+      </c>
+      <c r="G102" t="s">
         <v>304</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>15</v>
       </c>
-      <c r="H102" t="s">
-        <v>56</v>
-      </c>
       <c r="I102" t="s">
-        <v>53</v>
-      </c>
-      <c r="J102" t="str">
+        <v>56</v>
+      </c>
+      <c r="J102" t="s">
+        <v>53</v>
+      </c>
+      <c r="K102" t="str">
         <f t="shared" si="1"/>
         <v>img/users/101.png</v>
       </c>
-      <c r="K102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4981,33 +5198,36 @@
       <c r="C103" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="2">
-        <v>1752333530</v>
+      <c r="D103">
+        <v>2584676</v>
       </c>
       <c r="E103" s="2">
         <v>1752333530</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2">
+        <v>1752333530</v>
+      </c>
+      <c r="G103" t="s">
         <v>304</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>16</v>
       </c>
-      <c r="H103" t="s">
-        <v>56</v>
-      </c>
       <c r="I103" t="s">
-        <v>53</v>
-      </c>
-      <c r="J103" t="str">
+        <v>56</v>
+      </c>
+      <c r="J103" t="s">
+        <v>53</v>
+      </c>
+      <c r="K103" t="str">
         <f t="shared" si="1"/>
         <v>img/users/102.png</v>
       </c>
-      <c r="K103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5017,33 +5237,33 @@
       <c r="C104" t="s">
         <v>226</v>
       </c>
-      <c r="D104" s="2">
-        <v>1882001684</v>
-      </c>
       <c r="E104" s="2">
         <v>1882001684</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2">
+        <v>1882001684</v>
+      </c>
+      <c r="G104" t="s">
         <v>304</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>17</v>
       </c>
-      <c r="H104" t="s">
-        <v>56</v>
-      </c>
       <c r="I104" t="s">
-        <v>53</v>
-      </c>
-      <c r="J104" t="str">
+        <v>56</v>
+      </c>
+      <c r="J104" t="s">
+        <v>53</v>
+      </c>
+      <c r="K104" t="str">
         <f t="shared" si="1"/>
         <v>img/users/103.png</v>
       </c>
-      <c r="K104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5053,33 +5273,36 @@
       <c r="C105" t="s">
         <v>228</v>
       </c>
-      <c r="D105" s="2">
-        <v>1818964658</v>
+      <c r="D105">
+        <v>2562877</v>
       </c>
       <c r="E105" s="2">
         <v>1818964658</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2">
+        <v>1818964658</v>
+      </c>
+      <c r="G105" t="s">
         <v>304</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>18</v>
       </c>
-      <c r="H105" t="s">
-        <v>56</v>
-      </c>
       <c r="I105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J105" t="str">
+        <v>56</v>
+      </c>
+      <c r="J105" t="s">
+        <v>53</v>
+      </c>
+      <c r="K105" t="str">
         <f t="shared" si="1"/>
         <v>img/users/104.png</v>
       </c>
-      <c r="K105" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5089,33 +5312,36 @@
       <c r="C106" t="s">
         <v>230</v>
       </c>
-      <c r="D106" s="2">
-        <v>1857772887</v>
+      <c r="D106">
+        <v>2570142</v>
       </c>
       <c r="E106" s="2">
         <v>1857772887</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2">
+        <v>1857772887</v>
+      </c>
+      <c r="G106" t="s">
         <v>304</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>19</v>
       </c>
-      <c r="H106" t="s">
-        <v>56</v>
-      </c>
       <c r="I106" t="s">
-        <v>53</v>
-      </c>
-      <c r="J106" t="str">
+        <v>56</v>
+      </c>
+      <c r="J106" t="s">
+        <v>53</v>
+      </c>
+      <c r="K106" t="str">
         <f t="shared" si="1"/>
         <v>img/users/105.png</v>
       </c>
-      <c r="K106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5125,33 +5351,33 @@
       <c r="C107" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="2">
-        <v>1865893398</v>
-      </c>
       <c r="E107" s="2">
         <v>1865893398</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2">
+        <v>1865893398</v>
+      </c>
+      <c r="G107" t="s">
         <v>304</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>20</v>
       </c>
-      <c r="H107" t="s">
-        <v>56</v>
-      </c>
       <c r="I107" t="s">
-        <v>53</v>
-      </c>
-      <c r="J107" t="str">
+        <v>56</v>
+      </c>
+      <c r="J107" t="s">
+        <v>53</v>
+      </c>
+      <c r="K107" t="str">
         <f t="shared" si="1"/>
         <v>img/users/106.png</v>
       </c>
-      <c r="K107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5161,33 +5387,33 @@
       <c r="C108" t="s">
         <v>234</v>
       </c>
-      <c r="D108" s="2">
-        <v>1863614556</v>
-      </c>
       <c r="E108" s="2">
         <v>1863614556</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2">
+        <v>1863614556</v>
+      </c>
+      <c r="G108" t="s">
         <v>304</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <v>21</v>
       </c>
-      <c r="H108" t="s">
-        <v>56</v>
-      </c>
       <c r="I108" t="s">
-        <v>53</v>
-      </c>
-      <c r="J108" t="str">
+        <v>56</v>
+      </c>
+      <c r="J108" t="s">
+        <v>53</v>
+      </c>
+      <c r="K108" t="str">
         <f t="shared" si="1"/>
         <v>img/users/107.png</v>
       </c>
-      <c r="K108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5197,33 +5423,33 @@
       <c r="C109" t="s">
         <v>236</v>
       </c>
-      <c r="D109" s="2">
-        <v>1961934237</v>
-      </c>
       <c r="E109" s="2">
         <v>1961934237</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2">
+        <v>1961934237</v>
+      </c>
+      <c r="G109" t="s">
         <v>304</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <v>22</v>
       </c>
-      <c r="H109" t="s">
-        <v>56</v>
-      </c>
       <c r="I109" t="s">
-        <v>53</v>
-      </c>
-      <c r="J109" t="str">
+        <v>56</v>
+      </c>
+      <c r="J109" t="s">
+        <v>53</v>
+      </c>
+      <c r="K109" t="str">
         <f t="shared" si="1"/>
         <v>img/users/108.png</v>
       </c>
-      <c r="K109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5233,33 +5459,33 @@
       <c r="C110" t="s">
         <v>238</v>
       </c>
-      <c r="D110" s="2">
-        <v>1827271294</v>
-      </c>
       <c r="E110" s="2">
         <v>1827271294</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2">
+        <v>1827271294</v>
+      </c>
+      <c r="G110" t="s">
         <v>304</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <v>23</v>
       </c>
-      <c r="H110" t="s">
-        <v>56</v>
-      </c>
       <c r="I110" t="s">
-        <v>53</v>
-      </c>
-      <c r="J110" t="str">
+        <v>56</v>
+      </c>
+      <c r="J110" t="s">
+        <v>53</v>
+      </c>
+      <c r="K110" t="str">
         <f t="shared" si="1"/>
         <v>img/users/109.png</v>
       </c>
-      <c r="K110" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5269,33 +5495,33 @@
       <c r="C111" t="s">
         <v>240</v>
       </c>
-      <c r="D111" s="2">
-        <v>1859897358</v>
-      </c>
       <c r="E111" s="2">
         <v>1859897358</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2">
+        <v>1859897358</v>
+      </c>
+      <c r="G111" t="s">
         <v>304</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>24</v>
       </c>
-      <c r="H111" t="s">
-        <v>56</v>
-      </c>
       <c r="I111" t="s">
-        <v>53</v>
-      </c>
-      <c r="J111" t="str">
+        <v>56</v>
+      </c>
+      <c r="J111" t="s">
+        <v>53</v>
+      </c>
+      <c r="K111" t="str">
         <f t="shared" si="1"/>
         <v>img/users/110.png</v>
       </c>
-      <c r="K111" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5305,33 +5531,33 @@
       <c r="C112" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="2">
-        <v>1872078961</v>
-      </c>
       <c r="E112" s="2">
         <v>1872078961</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2">
+        <v>1872078961</v>
+      </c>
+      <c r="G112" t="s">
         <v>304</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <v>25</v>
       </c>
-      <c r="H112" t="s">
-        <v>56</v>
-      </c>
       <c r="I112" t="s">
-        <v>53</v>
-      </c>
-      <c r="J112" t="str">
+        <v>56</v>
+      </c>
+      <c r="J112" t="s">
+        <v>53</v>
+      </c>
+      <c r="K112" t="str">
         <f t="shared" si="1"/>
         <v>img/users/111.png</v>
       </c>
-      <c r="K112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5341,33 +5567,36 @@
       <c r="C113" t="s">
         <v>245</v>
       </c>
-      <c r="D113" s="2">
-        <v>1716405432</v>
+      <c r="D113">
+        <v>2575402</v>
       </c>
       <c r="E113" s="2">
         <v>1716405432</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2">
+        <v>1716405432</v>
+      </c>
+      <c r="G113" t="s">
         <v>304</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <v>26</v>
       </c>
-      <c r="H113" t="s">
-        <v>56</v>
-      </c>
       <c r="I113" t="s">
-        <v>53</v>
-      </c>
-      <c r="J113" t="str">
+        <v>56</v>
+      </c>
+      <c r="J113" t="s">
+        <v>53</v>
+      </c>
+      <c r="K113" t="str">
         <f t="shared" si="1"/>
         <v>img/users/112.png</v>
       </c>
-      <c r="K113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5377,33 +5606,36 @@
       <c r="C114" t="s">
         <v>247</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>242</v>
+      <c r="D114">
+        <v>2561889</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G114" t="s">
         <v>304</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <v>27</v>
       </c>
-      <c r="H114" t="s">
-        <v>56</v>
-      </c>
       <c r="I114" t="s">
-        <v>53</v>
-      </c>
-      <c r="J114" t="str">
+        <v>56</v>
+      </c>
+      <c r="J114" t="s">
+        <v>53</v>
+      </c>
+      <c r="K114" t="str">
         <f t="shared" si="1"/>
         <v>img/users/113.png</v>
       </c>
-      <c r="K114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5413,33 +5645,33 @@
       <c r="C115" t="s">
         <v>249</v>
       </c>
-      <c r="D115" s="2">
-        <v>1888038201</v>
-      </c>
       <c r="E115" s="2">
         <v>1888038201</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2">
+        <v>1888038201</v>
+      </c>
+      <c r="G115" t="s">
         <v>304</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>28</v>
       </c>
-      <c r="H115" t="s">
-        <v>56</v>
-      </c>
       <c r="I115" t="s">
-        <v>53</v>
-      </c>
-      <c r="J115" t="str">
+        <v>56</v>
+      </c>
+      <c r="J115" t="s">
+        <v>53</v>
+      </c>
+      <c r="K115" t="str">
         <f t="shared" si="1"/>
         <v>img/users/114.png</v>
       </c>
-      <c r="K115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5449,33 +5681,36 @@
       <c r="C116" t="s">
         <v>251</v>
       </c>
-      <c r="D116" s="2">
-        <v>1887931083</v>
+      <c r="D116">
+        <v>2579154</v>
       </c>
       <c r="E116" s="2">
         <v>1887931083</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2">
+        <v>1887931083</v>
+      </c>
+      <c r="G116" t="s">
         <v>304</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>29</v>
       </c>
-      <c r="H116" t="s">
-        <v>56</v>
-      </c>
       <c r="I116" t="s">
-        <v>53</v>
-      </c>
-      <c r="J116" t="str">
+        <v>56</v>
+      </c>
+      <c r="J116" t="s">
+        <v>53</v>
+      </c>
+      <c r="K116" t="str">
         <f t="shared" si="1"/>
         <v>img/users/115.png</v>
       </c>
-      <c r="K116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5485,33 +5720,33 @@
       <c r="C117" t="s">
         <v>253</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E117" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G117" t="s">
         <v>304</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <v>30</v>
       </c>
-      <c r="H117" t="s">
-        <v>56</v>
-      </c>
       <c r="I117" t="s">
-        <v>53</v>
-      </c>
-      <c r="J117" t="str">
+        <v>56</v>
+      </c>
+      <c r="J117" t="s">
+        <v>53</v>
+      </c>
+      <c r="K117" t="str">
         <f t="shared" si="1"/>
         <v>img/users/116.png</v>
       </c>
-      <c r="K117" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5521,33 +5756,33 @@
       <c r="C118" t="s">
         <v>255</v>
       </c>
-      <c r="D118" s="2">
-        <v>1607711969</v>
-      </c>
       <c r="E118" s="2">
         <v>1607711969</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2">
+        <v>1607711969</v>
+      </c>
+      <c r="G118" t="s">
         <v>304</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <v>31</v>
       </c>
-      <c r="H118" t="s">
-        <v>56</v>
-      </c>
       <c r="I118" t="s">
-        <v>53</v>
-      </c>
-      <c r="J118" t="str">
+        <v>56</v>
+      </c>
+      <c r="J118" t="s">
+        <v>53</v>
+      </c>
+      <c r="K118" t="str">
         <f t="shared" si="1"/>
         <v>img/users/117.png</v>
       </c>
-      <c r="K118" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5557,33 +5792,36 @@
       <c r="C119" t="s">
         <v>74</v>
       </c>
-      <c r="D119" s="2">
-        <v>1921332753</v>
+      <c r="D119">
+        <v>2556529</v>
       </c>
       <c r="E119" s="2">
         <v>1921332753</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2">
+        <v>1921332753</v>
+      </c>
+      <c r="G119" t="s">
         <v>305</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>1</v>
       </c>
-      <c r="H119" t="s">
-        <v>56</v>
-      </c>
       <c r="I119" t="s">
-        <v>53</v>
-      </c>
-      <c r="J119" t="str">
+        <v>56</v>
+      </c>
+      <c r="J119" t="s">
+        <v>53</v>
+      </c>
+      <c r="K119" t="str">
         <f t="shared" si="1"/>
         <v>img/users/118.png</v>
       </c>
-      <c r="K119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5593,33 +5831,36 @@
       <c r="C120" t="s">
         <v>257</v>
       </c>
-      <c r="D120" s="2">
-        <v>1861731807</v>
+      <c r="D120">
+        <v>2561656</v>
       </c>
       <c r="E120" s="2">
         <v>1861731807</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2">
+        <v>1861731807</v>
+      </c>
+      <c r="G120" t="s">
         <v>305</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>2</v>
       </c>
-      <c r="H120" t="s">
-        <v>56</v>
-      </c>
       <c r="I120" t="s">
-        <v>53</v>
-      </c>
-      <c r="J120" t="str">
+        <v>56</v>
+      </c>
+      <c r="J120" t="s">
+        <v>53</v>
+      </c>
+      <c r="K120" t="str">
         <f t="shared" si="1"/>
         <v>img/users/119.png</v>
       </c>
-      <c r="K120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5629,33 +5870,33 @@
       <c r="C121" t="s">
         <v>259</v>
       </c>
-      <c r="D121" s="2">
-        <v>1619146027</v>
-      </c>
       <c r="E121" s="2">
         <v>1619146027</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2">
+        <v>1619146027</v>
+      </c>
+      <c r="G121" t="s">
         <v>305</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>3</v>
       </c>
-      <c r="H121" t="s">
-        <v>56</v>
-      </c>
       <c r="I121" t="s">
-        <v>53</v>
-      </c>
-      <c r="J121" t="str">
+        <v>56</v>
+      </c>
+      <c r="J121" t="s">
+        <v>53</v>
+      </c>
+      <c r="K121" t="str">
         <f t="shared" si="1"/>
         <v>img/users/120.png</v>
       </c>
-      <c r="K121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5665,33 +5906,33 @@
       <c r="C122" t="s">
         <v>261</v>
       </c>
-      <c r="D122" s="2">
-        <v>1882163610</v>
-      </c>
       <c r="E122" s="2">
         <v>1882163610</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2">
+        <v>1882163610</v>
+      </c>
+      <c r="G122" t="s">
         <v>305</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <v>4</v>
       </c>
-      <c r="H122" t="s">
-        <v>56</v>
-      </c>
       <c r="I122" t="s">
-        <v>53</v>
-      </c>
-      <c r="J122" t="str">
+        <v>56</v>
+      </c>
+      <c r="J122" t="s">
+        <v>53</v>
+      </c>
+      <c r="K122" t="str">
         <f t="shared" si="1"/>
         <v>img/users/121.png</v>
       </c>
-      <c r="K122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5701,33 +5942,36 @@
       <c r="C123" t="s">
         <v>263</v>
       </c>
-      <c r="D123" s="2">
-        <v>1988312596</v>
+      <c r="D123">
+        <v>2594160</v>
       </c>
       <c r="E123" s="2">
         <v>1988312596</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2">
+        <v>1988312596</v>
+      </c>
+      <c r="G123" t="s">
         <v>305</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>5</v>
       </c>
-      <c r="H123" t="s">
-        <v>56</v>
-      </c>
       <c r="I123" t="s">
-        <v>53</v>
-      </c>
-      <c r="J123" t="str">
+        <v>56</v>
+      </c>
+      <c r="J123" t="s">
+        <v>53</v>
+      </c>
+      <c r="K123" t="str">
         <f t="shared" si="1"/>
         <v>img/users/122.png</v>
       </c>
-      <c r="K123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5737,33 +5981,36 @@
       <c r="C124" t="s">
         <v>265</v>
       </c>
-      <c r="D124" s="2">
-        <v>1872501404</v>
+      <c r="D124">
+        <v>2585636</v>
       </c>
       <c r="E124" s="2">
         <v>1872501404</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2">
+        <v>1872501404</v>
+      </c>
+      <c r="G124" t="s">
         <v>305</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>6</v>
       </c>
-      <c r="H124" t="s">
-        <v>56</v>
-      </c>
       <c r="I124" t="s">
-        <v>53</v>
-      </c>
-      <c r="J124" t="str">
+        <v>56</v>
+      </c>
+      <c r="J124" t="s">
+        <v>53</v>
+      </c>
+      <c r="K124" t="str">
         <f t="shared" si="1"/>
         <v>img/users/123.png</v>
       </c>
-      <c r="K124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5773,33 +6020,36 @@
       <c r="C125" t="s">
         <v>267</v>
       </c>
-      <c r="D125" s="2">
-        <v>1833227757</v>
+      <c r="D125">
+        <v>2581143</v>
       </c>
       <c r="E125" s="2">
         <v>1833227757</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2">
+        <v>1833227757</v>
+      </c>
+      <c r="G125" t="s">
         <v>305</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <v>7</v>
       </c>
-      <c r="H125" t="s">
-        <v>56</v>
-      </c>
       <c r="I125" t="s">
-        <v>53</v>
-      </c>
-      <c r="J125" t="str">
+        <v>56</v>
+      </c>
+      <c r="J125" t="s">
+        <v>53</v>
+      </c>
+      <c r="K125" t="str">
         <f t="shared" si="1"/>
         <v>img/users/124.png</v>
       </c>
-      <c r="K125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5809,33 +6059,36 @@
       <c r="C126" t="s">
         <v>269</v>
       </c>
-      <c r="D126" s="2">
-        <v>1867112900</v>
+      <c r="D126">
+        <v>2567994</v>
       </c>
       <c r="E126" s="2">
         <v>1867112900</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2">
+        <v>1867112900</v>
+      </c>
+      <c r="G126" t="s">
         <v>305</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>8</v>
       </c>
-      <c r="H126" t="s">
-        <v>56</v>
-      </c>
       <c r="I126" t="s">
-        <v>53</v>
-      </c>
-      <c r="J126" t="str">
+        <v>56</v>
+      </c>
+      <c r="J126" t="s">
+        <v>53</v>
+      </c>
+      <c r="K126" t="str">
         <f t="shared" si="1"/>
         <v>img/users/125.png</v>
       </c>
-      <c r="K126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5845,33 +6098,33 @@
       <c r="C127" t="s">
         <v>271</v>
       </c>
-      <c r="D127" s="2">
-        <v>1861731807</v>
-      </c>
       <c r="E127" s="2">
         <v>1861731807</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="2">
+        <v>1861731807</v>
+      </c>
+      <c r="G127" t="s">
         <v>305</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <v>9</v>
       </c>
-      <c r="H127" t="s">
-        <v>56</v>
-      </c>
       <c r="I127" t="s">
-        <v>53</v>
-      </c>
-      <c r="J127" t="str">
+        <v>56</v>
+      </c>
+      <c r="J127" t="s">
+        <v>53</v>
+      </c>
+      <c r="K127" t="str">
         <f t="shared" si="1"/>
         <v>img/users/126.png</v>
       </c>
-      <c r="K127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5881,33 +6134,36 @@
       <c r="C128" t="s">
         <v>273</v>
       </c>
-      <c r="D128" s="2">
-        <v>1998702325</v>
+      <c r="D128">
+        <v>2555501</v>
       </c>
       <c r="E128" s="2">
         <v>1998702325</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2">
+        <v>1998702325</v>
+      </c>
+      <c r="G128" t="s">
         <v>305</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <v>10</v>
       </c>
-      <c r="H128" t="s">
-        <v>56</v>
-      </c>
       <c r="I128" t="s">
-        <v>53</v>
-      </c>
-      <c r="J128" t="str">
+        <v>56</v>
+      </c>
+      <c r="J128" t="s">
+        <v>53</v>
+      </c>
+      <c r="K128" t="str">
         <f t="shared" si="1"/>
         <v>img/users/127.png</v>
       </c>
-      <c r="K128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5917,33 +6173,36 @@
       <c r="C129" t="s">
         <v>275</v>
       </c>
-      <c r="D129" s="2">
-        <v>1823755989</v>
+      <c r="D129">
+        <v>2581322</v>
       </c>
       <c r="E129" s="2">
         <v>1823755989</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2">
+        <v>1823755989</v>
+      </c>
+      <c r="G129" t="s">
         <v>305</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <v>11</v>
       </c>
-      <c r="H129" t="s">
-        <v>56</v>
-      </c>
       <c r="I129" t="s">
-        <v>53</v>
-      </c>
-      <c r="J129" t="str">
+        <v>56</v>
+      </c>
+      <c r="J129" t="s">
+        <v>53</v>
+      </c>
+      <c r="K129" t="str">
         <f t="shared" si="1"/>
         <v>img/users/128.png</v>
       </c>
-      <c r="K129" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5953,33 +6212,33 @@
       <c r="C130" t="s">
         <v>277</v>
       </c>
-      <c r="D130" s="2">
-        <v>1837599620</v>
-      </c>
       <c r="E130" s="2">
         <v>1837599620</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2">
+        <v>1837599620</v>
+      </c>
+      <c r="G130" t="s">
         <v>305</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
         <v>12</v>
       </c>
-      <c r="H130" t="s">
-        <v>56</v>
-      </c>
       <c r="I130" t="s">
-        <v>53</v>
-      </c>
-      <c r="J130" t="str">
+        <v>56</v>
+      </c>
+      <c r="J130" t="s">
+        <v>53</v>
+      </c>
+      <c r="K130" t="str">
         <f t="shared" si="1"/>
         <v>img/users/129.png</v>
       </c>
-      <c r="K130" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5989,33 +6248,33 @@
       <c r="C131" t="s">
         <v>279</v>
       </c>
-      <c r="D131" s="2">
-        <v>1871226057</v>
-      </c>
       <c r="E131" s="2">
         <v>1871226057</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2">
+        <v>1871226057</v>
+      </c>
+      <c r="G131" t="s">
         <v>305</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>13</v>
       </c>
-      <c r="H131" t="s">
-        <v>56</v>
-      </c>
       <c r="I131" t="s">
-        <v>53</v>
-      </c>
-      <c r="J131" t="str">
+        <v>56</v>
+      </c>
+      <c r="J131" t="s">
+        <v>53</v>
+      </c>
+      <c r="K131" t="str">
         <f t="shared" si="1"/>
         <v>img/users/130.png</v>
       </c>
-      <c r="K131" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6025,33 +6284,36 @@
       <c r="C132" t="s">
         <v>281</v>
       </c>
-      <c r="D132" s="2">
-        <v>1825114380</v>
+      <c r="D132">
+        <v>2555485</v>
       </c>
       <c r="E132" s="2">
         <v>1825114380</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2">
+        <v>1825114380</v>
+      </c>
+      <c r="G132" t="s">
         <v>305</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <v>14</v>
       </c>
-      <c r="H132" t="s">
-        <v>56</v>
-      </c>
       <c r="I132" t="s">
-        <v>53</v>
-      </c>
-      <c r="J132" t="str">
-        <f t="shared" ref="J132:J138" si="2">LEFT(J131, 10) &amp; TEXT(VALUE(MID(J131, 11, 3)) + 1, "000") &amp; RIGHT(J131, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="J132" t="s">
+        <v>53</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" ref="K132:K138" si="2">LEFT(K131, 10) &amp; TEXT(VALUE(MID(K131, 11, 3)) + 1, "000") &amp; RIGHT(K131, 4)</f>
         <v>img/users/131.png</v>
       </c>
-      <c r="K132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6061,33 +6323,36 @@
       <c r="C133" t="s">
         <v>283</v>
       </c>
-      <c r="D133" s="2">
-        <v>1815745696</v>
+      <c r="D133">
+        <v>2578921</v>
       </c>
       <c r="E133" s="2">
         <v>1815745696</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2">
+        <v>1815745696</v>
+      </c>
+      <c r="G133" t="s">
         <v>305</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <v>15</v>
       </c>
-      <c r="H133" t="s">
-        <v>56</v>
-      </c>
       <c r="I133" t="s">
-        <v>53</v>
-      </c>
-      <c r="J133" t="str">
+        <v>56</v>
+      </c>
+      <c r="J133" t="s">
+        <v>53</v>
+      </c>
+      <c r="K133" t="str">
         <f t="shared" si="2"/>
         <v>img/users/132.png</v>
       </c>
-      <c r="K133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6097,33 +6362,36 @@
       <c r="C134" t="s">
         <v>285</v>
       </c>
-      <c r="D134" s="2">
-        <v>1839553538</v>
+      <c r="D134">
+        <v>2559834</v>
       </c>
       <c r="E134" s="2">
         <v>1839553538</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2">
+        <v>1839553538</v>
+      </c>
+      <c r="G134" t="s">
         <v>305</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <v>16</v>
       </c>
-      <c r="H134" t="s">
-        <v>56</v>
-      </c>
       <c r="I134" t="s">
-        <v>53</v>
-      </c>
-      <c r="J134" t="str">
+        <v>56</v>
+      </c>
+      <c r="J134" t="s">
+        <v>53</v>
+      </c>
+      <c r="K134" t="str">
         <f t="shared" si="2"/>
         <v>img/users/133.png</v>
       </c>
-      <c r="K134" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6133,33 +6401,33 @@
       <c r="C135" t="s">
         <v>287</v>
       </c>
-      <c r="D135" s="2">
-        <v>1848112292</v>
-      </c>
       <c r="E135" s="2">
         <v>1848112292</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2">
+        <v>1848112292</v>
+      </c>
+      <c r="G135" t="s">
         <v>305</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <v>17</v>
       </c>
-      <c r="H135" t="s">
-        <v>56</v>
-      </c>
       <c r="I135" t="s">
-        <v>53</v>
-      </c>
-      <c r="J135" t="str">
+        <v>56</v>
+      </c>
+      <c r="J135" t="s">
+        <v>53</v>
+      </c>
+      <c r="K135" t="str">
         <f t="shared" si="2"/>
         <v>img/users/134.png</v>
       </c>
-      <c r="K135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6169,33 +6437,33 @@
       <c r="C136" t="s">
         <v>289</v>
       </c>
-      <c r="D136" s="2">
-        <v>1889333980</v>
-      </c>
       <c r="E136" s="2">
         <v>1889333980</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2">
+        <v>1889333980</v>
+      </c>
+      <c r="G136" t="s">
         <v>305</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>18</v>
       </c>
-      <c r="H136" t="s">
-        <v>56</v>
-      </c>
       <c r="I136" t="s">
-        <v>53</v>
-      </c>
-      <c r="J136" t="str">
+        <v>56</v>
+      </c>
+      <c r="J136" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136" t="str">
         <f t="shared" si="2"/>
         <v>img/users/135.png</v>
       </c>
-      <c r="K136" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6205,33 +6473,36 @@
       <c r="C137" t="s">
         <v>292</v>
       </c>
-      <c r="D137" s="2">
-        <v>1727801075</v>
+      <c r="D137">
+        <v>2559849</v>
       </c>
       <c r="E137" s="2">
         <v>1727801075</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2">
+        <v>1727801075</v>
+      </c>
+      <c r="G137" t="s">
         <v>306</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>1</v>
       </c>
-      <c r="H137" t="s">
-        <v>56</v>
-      </c>
       <c r="I137" t="s">
-        <v>53</v>
-      </c>
-      <c r="J137" t="str">
+        <v>56</v>
+      </c>
+      <c r="J137" t="s">
+        <v>53</v>
+      </c>
+      <c r="K137" t="str">
         <f t="shared" si="2"/>
         <v>img/users/136.png</v>
       </c>
-      <c r="K137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6241,29 +6512,32 @@
       <c r="C138" t="s">
         <v>295</v>
       </c>
-      <c r="D138" s="2">
-        <v>1617553845</v>
+      <c r="D138">
+        <v>2555486</v>
       </c>
       <c r="E138" s="2">
         <v>1617553845</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2">
+        <v>1617553845</v>
+      </c>
+      <c r="G138" t="s">
         <v>306</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <v>2</v>
       </c>
-      <c r="H138" t="s">
-        <v>56</v>
-      </c>
       <c r="I138" t="s">
-        <v>53</v>
-      </c>
-      <c r="J138" t="str">
+        <v>56</v>
+      </c>
+      <c r="J138" t="s">
+        <v>53</v>
+      </c>
+      <c r="K138" t="str">
         <f t="shared" si="2"/>
         <v>img/users/137.png</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>55</v>
       </c>
     </row>

--- a/apps/database/json/studentModel.xlsx
+++ b/apps/database/json/studentModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="311">
   <si>
     <t>id</t>
   </si>
@@ -939,6 +939,15 @@
   </si>
   <si>
     <t>rfid_card</t>
+  </si>
+  <si>
+    <t>sms_status</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
 </sst>
 </file>
@@ -1283,29 +1292,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1322,28 +1332,31 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,29 +1372,32 @@
       <c r="E2" s="2">
         <v>1884051538</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="2">
         <v>1884051538</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1397,30 +1413,33 @@
       <c r="E3" s="2">
         <v>1835805025</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="2">
         <v>1835805025</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
       <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="str">
-        <f>LEFT(K2, 10) &amp; TEXT(VALUE(MID(K2, 11, 3)) + 1, "000") &amp; RIGHT(K2, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="str">
+        <f>LEFT(L2, 10) &amp; TEXT(VALUE(MID(L2, 11, 3)) + 1, "000") &amp; RIGHT(L2, 4)</f>
         <v>img/users/002.png</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1436,30 +1455,33 @@
       <c r="E4" s="2">
         <v>1995353603</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" s="2">
         <v>1995353603</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>56</v>
-      </c>
       <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K67" si="0">LEFT(K3, 10) &amp; TEXT(VALUE(MID(K3, 11, 3)) + 1, "000") &amp; RIGHT(K3, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="0">LEFT(L3, 10) &amp; TEXT(VALUE(MID(L3, 11, 3)) + 1, "000") &amp; RIGHT(L3, 4)</f>
         <v>img/users/003.png</v>
       </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1475,30 +1497,33 @@
       <c r="E5" s="2">
         <v>1831957564</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="2">
         <v>1831957564</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" t="str">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="0"/>
         <v>img/users/004.png</v>
       </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1514,30 +1539,33 @@
       <c r="E6" s="2">
         <v>1752333530</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="2">
         <v>1752333530</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>298</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
       <c r="J6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" t="str">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="0"/>
         <v>img/users/005.png</v>
       </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1553,30 +1581,33 @@
       <c r="E7" s="2">
         <v>1641702031</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="2">
         <v>1641702031</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>298</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
       <c r="J7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" t="str">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="0"/>
         <v>img/users/006.png</v>
       </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1592,30 +1623,33 @@
       <c r="E8" s="2">
         <v>1851984464</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="2">
         <v>1851984464</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>298</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
       <c r="J8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" t="str">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="0"/>
         <v>img/users/007.png</v>
       </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1628,30 +1662,33 @@
       <c r="E9" s="2">
         <v>1849951203</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="2">
         <v>1849951203</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
       <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="str">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="0"/>
         <v>img/users/008.png</v>
       </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1667,30 +1704,33 @@
       <c r="E10" s="2">
         <v>1634297141</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="2">
         <v>1634297141</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>298</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>56</v>
-      </c>
       <c r="J10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" t="str">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="0"/>
         <v>img/users/009.png</v>
       </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1706,30 +1746,33 @@
       <c r="E11" s="2">
         <v>1331351865</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="2">
         <v>1331351865</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>298</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>56</v>
-      </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="str">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="0"/>
         <v>img/users/010.png</v>
       </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1745,30 +1788,33 @@
       <c r="E12" s="2">
         <v>1897023927</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="2">
         <v>1897023927</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>298</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="str">
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="0"/>
         <v>img/users/011.png</v>
       </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1784,30 +1830,33 @@
       <c r="E13" s="2">
         <v>1823755989</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="2">
         <v>1823755989</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" t="str">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>img/users/012.png</v>
       </c>
-      <c r="L13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1823,30 +1872,33 @@
       <c r="E14" s="2">
         <v>1726967087</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="2">
         <v>1726967087</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
-        <v>56</v>
-      </c>
       <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" t="str">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>img/users/013.png</v>
       </c>
-      <c r="L14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1856,33 +1908,39 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
+      <c r="D15">
+        <v>2558459</v>
+      </c>
       <c r="E15" s="2">
         <v>1827591641</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="2">
         <v>1827591641</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>298</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>14</v>
       </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
       <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" t="str">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v>img/users/014.png</v>
       </c>
-      <c r="L15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1898,30 +1956,33 @@
       <c r="E16" s="2">
         <v>1789006919</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G16" s="2">
         <v>1789006919</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>298</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
       <c r="J16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" t="str">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>img/users/015.png</v>
       </c>
-      <c r="L16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1934,30 +1995,33 @@
       <c r="E17" s="2">
         <v>1880259541</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="2">
         <v>1880259541</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
       <c r="J17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" t="str">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>img/users/016.png</v>
       </c>
-      <c r="L17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1970,30 +2034,33 @@
       <c r="E18" s="2">
         <v>1869915878</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="2">
         <v>1869915878</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>298</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>57</v>
       </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="str">
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v>img/users/017.png</v>
       </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2009,30 +2076,33 @@
       <c r="E19" s="2">
         <v>1727801075</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="2">
         <v>1727801075</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>57</v>
       </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" t="str">
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v>img/users/018.png</v>
       </c>
-      <c r="L19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2048,30 +2118,33 @@
       <c r="E20" s="2">
         <v>1848360451</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="2">
         <v>1848360451</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" t="str">
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v>img/users/019.png</v>
       </c>
-      <c r="L20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2087,30 +2160,33 @@
       <c r="E21" s="2">
         <v>1843664251</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" s="2">
         <v>1843664251</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>299</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
-        <v>56</v>
-      </c>
       <c r="J21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" t="str">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v>img/users/020.png</v>
       </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2126,30 +2202,33 @@
       <c r="E22" s="2">
         <v>1852536828</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G22" s="2">
         <v>1852536828</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>4</v>
       </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
       <c r="J22" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" t="str">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v>img/users/021.png</v>
       </c>
-      <c r="L22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2165,30 +2244,33 @@
       <c r="E23" s="2">
         <v>1705687918</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="2">
         <v>1705687918</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>299</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>5</v>
       </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
       <c r="J23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" t="str">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v>img/users/022.png</v>
       </c>
-      <c r="L23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2204,30 +2286,33 @@
       <c r="E24" s="2">
         <v>1836415644</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="2">
         <v>1836415644</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>299</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
       <c r="J24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" t="str">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v>img/users/023.png</v>
       </c>
-      <c r="L24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2243,30 +2328,33 @@
       <c r="E25" s="2">
         <v>1871123427</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="2">
         <v>1871123427</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>299</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>7</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>57</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" t="str">
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v>img/users/024.png</v>
       </c>
-      <c r="L25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2276,33 +2364,39 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
+      <c r="D26">
+        <v>2555955</v>
+      </c>
       <c r="E26" s="2">
         <v>1897023153</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="2">
         <v>1897023153</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>299</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>8</v>
       </c>
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
       <c r="J26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" t="str">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v>img/users/025.png</v>
       </c>
-      <c r="L26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2318,30 +2412,33 @@
       <c r="E27" s="2">
         <v>1841901909</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G27" s="2">
         <v>1841901909</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>299</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
       <c r="J27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" t="str">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v>img/users/026.png</v>
       </c>
-      <c r="L27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2357,30 +2454,33 @@
       <c r="E28" s="2">
         <v>1896448272</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="2">
         <v>1896448272</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>299</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>10</v>
       </c>
-      <c r="I28" t="s">
-        <v>56</v>
-      </c>
       <c r="J28" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" t="str">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v>img/users/027.png</v>
       </c>
-      <c r="L28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2396,30 +2496,33 @@
       <c r="E29" s="2">
         <v>1317681404</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="2">
         <v>1317681404</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>299</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>11</v>
       </c>
-      <c r="I29" t="s">
-        <v>56</v>
-      </c>
       <c r="J29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" t="str">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v>img/users/028.png</v>
       </c>
-      <c r="L29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2435,30 +2538,33 @@
       <c r="E30" s="2">
         <v>1843251725</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="2">
         <v>1843251725</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>299</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>12</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>57</v>
       </c>
-      <c r="J30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" t="str">
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="0"/>
         <v>img/users/029.png</v>
       </c>
-      <c r="L30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2474,30 +2580,33 @@
       <c r="E31" s="2">
         <v>1825114380</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G31" s="2">
         <v>1825114380</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>299</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>57</v>
       </c>
-      <c r="J31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" t="str">
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="0"/>
         <v>img/users/030.png</v>
       </c>
-      <c r="L31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2507,33 +2616,39 @@
       <c r="C32" t="s">
         <v>86</v>
       </c>
+      <c r="D32">
+        <v>2559297</v>
+      </c>
       <c r="E32" s="2">
         <v>1855306061</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="2">
         <v>1855306061</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>299</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>14</v>
       </c>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
       <c r="J32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" t="str">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="0"/>
         <v>img/users/031.png</v>
       </c>
-      <c r="L32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2549,30 +2664,33 @@
       <c r="E33" s="2">
         <v>1864658766</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="2">
         <v>1864658766</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>299</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>15</v>
       </c>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
       <c r="J33" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" t="str">
+        <v>56</v>
+      </c>
+      <c r="K33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="0"/>
         <v>img/users/032.png</v>
       </c>
-      <c r="L33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2588,30 +2706,33 @@
       <c r="E34" s="2">
         <v>1608683233</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" s="2">
         <v>1608683233</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>299</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>16</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>57</v>
       </c>
-      <c r="J34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="K34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="0"/>
         <v>img/users/033.png</v>
       </c>
-      <c r="L34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2621,33 +2742,39 @@
       <c r="C35" t="s">
         <v>93</v>
       </c>
+      <c r="D35">
+        <v>2575449</v>
+      </c>
       <c r="E35" s="2">
         <v>1628153071</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" s="2">
         <v>1628153071</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>17</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>57</v>
       </c>
-      <c r="J35" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" t="str">
+      <c r="K35" t="s">
+        <v>53</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="0"/>
         <v>img/users/034.png</v>
       </c>
-      <c r="L35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2663,30 +2790,33 @@
       <c r="E36" s="2">
         <v>1817763469</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="2">
         <v>1817763469</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>299</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>18</v>
       </c>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
       <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" t="str">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="0"/>
         <v>img/users/035.png</v>
       </c>
-      <c r="L36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2696,33 +2826,39 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
+      <c r="D37">
+        <v>2575456</v>
+      </c>
       <c r="E37" s="2">
         <v>1818964658</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" s="2">
         <v>1818964658</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>299</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>19</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>57</v>
       </c>
-      <c r="J37" t="s">
-        <v>53</v>
-      </c>
-      <c r="K37" t="str">
+      <c r="K37" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" si="0"/>
         <v>img/users/036.png</v>
       </c>
-      <c r="L37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2738,30 +2874,33 @@
       <c r="E38" s="2">
         <v>1927185094</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G38" s="2">
         <v>1927185094</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>299</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>20</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>57</v>
       </c>
-      <c r="J38" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" t="str">
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="0"/>
         <v>img/users/037.png</v>
       </c>
-      <c r="L38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2777,30 +2916,33 @@
       <c r="E39" s="2">
         <v>1880445868</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="2">
         <v>1880445868</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>299</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>21</v>
       </c>
-      <c r="I39" t="s">
-        <v>56</v>
-      </c>
       <c r="J39" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" t="str">
+        <v>56</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="0"/>
         <v>img/users/038.png</v>
       </c>
-      <c r="L39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2816,30 +2958,33 @@
       <c r="E40" s="2">
         <v>1831190825</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="2">
         <v>1831190825</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>299</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>22</v>
       </c>
-      <c r="I40" t="s">
-        <v>56</v>
-      </c>
       <c r="J40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" t="str">
+        <v>56</v>
+      </c>
+      <c r="K40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="0"/>
         <v>img/users/039.png</v>
       </c>
-      <c r="L40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2855,30 +3000,33 @@
       <c r="E41" s="2">
         <v>1823511776</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" s="2">
         <v>1823511776</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>299</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>23</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>57</v>
       </c>
-      <c r="J41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" t="str">
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="0"/>
         <v>img/users/040.png</v>
       </c>
-      <c r="L41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2894,30 +3042,33 @@
       <c r="E42" s="2">
         <v>1928577913</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" s="2">
         <v>1928577913</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>300</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>57</v>
       </c>
-      <c r="J42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" t="str">
+      <c r="K42" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="0"/>
         <v>img/users/041.png</v>
       </c>
-      <c r="L42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2933,30 +3084,33 @@
       <c r="E43" s="2">
         <v>1878239229</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="2">
         <v>1878239229</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>300</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>2</v>
       </c>
-      <c r="I43" t="s">
-        <v>56</v>
-      </c>
       <c r="J43" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" t="str">
+        <v>56</v>
+      </c>
+      <c r="K43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="0"/>
         <v>img/users/042.png</v>
       </c>
-      <c r="L43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2972,30 +3126,33 @@
       <c r="E44" s="2">
         <v>1878239229</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" s="2">
         <v>1878239229</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>300</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>3</v>
       </c>
-      <c r="I44" t="s">
-        <v>56</v>
-      </c>
       <c r="J44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K44" t="str">
+        <v>56</v>
+      </c>
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="0"/>
         <v>img/users/043.png</v>
       </c>
-      <c r="L44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3008,30 +3165,33 @@
       <c r="E45" s="2">
         <v>1735672273</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" s="2">
         <v>1735672273</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>300</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>4</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>57</v>
       </c>
-      <c r="J45" t="s">
-        <v>53</v>
-      </c>
-      <c r="K45" t="str">
+      <c r="K45" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="0"/>
         <v>img/users/044.png</v>
       </c>
-      <c r="L45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3047,30 +3207,33 @@
       <c r="E46" s="2">
         <v>1789954498</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" s="2">
         <v>1789954498</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>5</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>57</v>
       </c>
-      <c r="J46" t="s">
-        <v>53</v>
-      </c>
-      <c r="K46" t="str">
+      <c r="K46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="0"/>
         <v>img/users/045.png</v>
       </c>
-      <c r="L46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3086,30 +3249,33 @@
       <c r="E47" s="2">
         <v>1881736761</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="2">
         <v>1881736761</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>300</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>6</v>
       </c>
-      <c r="I47" t="s">
-        <v>56</v>
-      </c>
       <c r="J47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" t="str">
+        <v>56</v>
+      </c>
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="0"/>
         <v>img/users/046.png</v>
       </c>
-      <c r="L47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3125,30 +3291,33 @@
       <c r="E48" s="2">
         <v>1611273155</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="2">
         <v>1611273155</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>300</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>7</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>57</v>
       </c>
-      <c r="J48" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" t="str">
+      <c r="K48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="0"/>
         <v>img/users/047.png</v>
       </c>
-      <c r="L48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3164,30 +3333,33 @@
       <c r="E49" s="2">
         <v>1850305660</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G49" s="2">
         <v>1850305660</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>300</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>8</v>
       </c>
-      <c r="I49" t="s">
-        <v>56</v>
-      </c>
       <c r="J49" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" t="str">
+        <v>56</v>
+      </c>
+      <c r="K49" t="s">
+        <v>53</v>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="0"/>
         <v>img/users/048.png</v>
       </c>
-      <c r="L49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3200,30 +3372,33 @@
       <c r="E50" s="2">
         <v>1883135698</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G50" s="2">
         <v>1883135698</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>300</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
-        <v>56</v>
-      </c>
       <c r="J50" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" t="str">
+        <v>56</v>
+      </c>
+      <c r="K50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="0"/>
         <v>img/users/049.png</v>
       </c>
-      <c r="L50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3239,30 +3414,33 @@
       <c r="E51" s="2">
         <v>1857811084</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G51" s="2">
         <v>1857811084</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>300</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>10</v>
       </c>
-      <c r="I51" t="s">
-        <v>56</v>
-      </c>
       <c r="J51" t="s">
-        <v>53</v>
-      </c>
-      <c r="K51" t="str">
+        <v>56</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="0"/>
         <v>img/users/050.png</v>
       </c>
-      <c r="L51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3275,30 +3453,33 @@
       <c r="E52" s="2">
         <v>1879733744</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G52" s="2">
         <v>1879733744</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>300</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>11</v>
       </c>
-      <c r="I52" t="s">
-        <v>56</v>
-      </c>
       <c r="J52" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" t="str">
+        <v>56</v>
+      </c>
+      <c r="K52" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" t="str">
         <f t="shared" si="0"/>
         <v>img/users/051.png</v>
       </c>
-      <c r="L52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3314,30 +3495,33 @@
       <c r="E53" s="2">
         <v>1812104847</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G53" s="2">
         <v>1812104847</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>12</v>
       </c>
-      <c r="I53" t="s">
-        <v>56</v>
-      </c>
       <c r="J53" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" t="str">
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="0"/>
         <v>img/users/052.png</v>
       </c>
-      <c r="L53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3353,30 +3537,33 @@
       <c r="E54" s="2">
         <v>1836092834</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" s="2">
         <v>1836092834</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>300</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>13</v>
       </c>
-      <c r="I54" t="s">
-        <v>56</v>
-      </c>
       <c r="J54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K54" t="str">
+        <v>56</v>
+      </c>
+      <c r="K54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="0"/>
         <v>img/users/053.png</v>
       </c>
-      <c r="L54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3392,30 +3579,33 @@
       <c r="E55" s="2">
         <v>1818768867</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" s="2">
         <v>1818768867</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>300</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>14</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>57</v>
       </c>
-      <c r="J55" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="K55" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="0"/>
         <v>img/users/054.png</v>
       </c>
-      <c r="L55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3431,30 +3621,33 @@
       <c r="E56" s="2">
         <v>1846293166</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G56" s="2">
         <v>1846293166</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>300</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>15</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>57</v>
       </c>
-      <c r="J56" t="s">
-        <v>53</v>
-      </c>
-      <c r="K56" t="str">
+      <c r="K56" t="s">
+        <v>53</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="0"/>
         <v>img/users/055.png</v>
       </c>
-      <c r="L56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3470,30 +3663,33 @@
       <c r="E57" s="2">
         <v>1814923474</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G57" s="2">
         <v>1814923474</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>300</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>16</v>
       </c>
-      <c r="I57" t="s">
-        <v>56</v>
-      </c>
       <c r="J57" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" t="str">
+        <v>56</v>
+      </c>
+      <c r="K57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="0"/>
         <v>img/users/056.png</v>
       </c>
-      <c r="L57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3506,30 +3702,33 @@
       <c r="E58" s="2">
         <v>1863890069</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G58" s="2">
         <v>1863890069</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>300</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>17</v>
       </c>
-      <c r="I58" t="s">
-        <v>56</v>
-      </c>
       <c r="J58" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" t="str">
+        <v>56</v>
+      </c>
+      <c r="K58" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" t="str">
         <f t="shared" si="0"/>
         <v>img/users/057.png</v>
       </c>
-      <c r="L58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3545,30 +3744,33 @@
       <c r="E59" s="2">
         <v>1827427342</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G59" s="2">
         <v>1827427342</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>300</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>18</v>
       </c>
-      <c r="I59" t="s">
-        <v>56</v>
-      </c>
       <c r="J59" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" t="str">
+        <v>56</v>
+      </c>
+      <c r="K59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" t="str">
         <f t="shared" si="0"/>
         <v>img/users/058.png</v>
       </c>
-      <c r="L59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3581,30 +3783,33 @@
       <c r="E60" s="2">
         <v>1625317884</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G60" s="2">
         <v>1625317884</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>300</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>19</v>
       </c>
-      <c r="I60" t="s">
-        <v>56</v>
-      </c>
       <c r="J60" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" t="str">
+        <v>56</v>
+      </c>
+      <c r="K60" t="s">
+        <v>53</v>
+      </c>
+      <c r="L60" t="str">
         <f t="shared" si="0"/>
         <v>img/users/059.png</v>
       </c>
-      <c r="L60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3617,30 +3822,33 @@
       <c r="E61" s="2">
         <v>1840528749</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="2">
         <v>1840528749</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>20</v>
       </c>
-      <c r="I61" t="s">
-        <v>56</v>
-      </c>
       <c r="J61" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61" t="str">
+        <v>56</v>
+      </c>
+      <c r="K61" t="s">
+        <v>53</v>
+      </c>
+      <c r="L61" t="str">
         <f t="shared" si="0"/>
         <v>img/users/060.png</v>
       </c>
-      <c r="L61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3656,30 +3864,33 @@
       <c r="E62" s="2">
         <v>1869915878</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" s="2">
         <v>1869915878</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>300</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>21</v>
       </c>
-      <c r="I62" t="s">
-        <v>56</v>
-      </c>
       <c r="J62" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" t="str">
+        <v>56</v>
+      </c>
+      <c r="K62" t="s">
+        <v>53</v>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="0"/>
         <v>img/users/061.png</v>
       </c>
-      <c r="L62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3695,30 +3906,33 @@
       <c r="E63" s="2">
         <v>1848360451</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G63" s="2">
         <v>1848360451</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>301</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
-        <v>56</v>
-      </c>
       <c r="J63" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" t="str">
+        <v>56</v>
+      </c>
+      <c r="K63" t="s">
+        <v>53</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="0"/>
         <v>img/users/062.png</v>
       </c>
-      <c r="L63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3734,30 +3948,33 @@
       <c r="E64" s="2">
         <v>1818786657</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G64" s="2">
         <v>1818786657</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="I64" t="s">
-        <v>56</v>
-      </c>
       <c r="J64" t="s">
-        <v>53</v>
-      </c>
-      <c r="K64" t="str">
+        <v>56</v>
+      </c>
+      <c r="K64" t="s">
+        <v>53</v>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="0"/>
         <v>img/users/063.png</v>
       </c>
-      <c r="L64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3773,30 +3990,33 @@
       <c r="E65" s="2">
         <v>1868402680</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="2">
         <v>1868402680</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>301</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>3</v>
       </c>
-      <c r="I65" t="s">
-        <v>56</v>
-      </c>
       <c r="J65" t="s">
-        <v>53</v>
-      </c>
-      <c r="K65" t="str">
+        <v>56</v>
+      </c>
+      <c r="K65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="0"/>
         <v>img/users/064.png</v>
       </c>
-      <c r="L65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3809,30 +4029,33 @@
       <c r="E66" s="2">
         <v>1832252077</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66" s="2">
         <v>1832252077</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>301</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>4</v>
       </c>
-      <c r="I66" t="s">
-        <v>56</v>
-      </c>
       <c r="J66" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66" t="str">
+        <v>56</v>
+      </c>
+      <c r="K66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="0"/>
         <v>img/users/065.png</v>
       </c>
-      <c r="L66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3845,30 +4068,33 @@
       <c r="E67" s="2">
         <v>1958682817</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G67" s="2">
         <v>1958682817</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>301</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>5</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>57</v>
       </c>
-      <c r="J67" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" t="str">
+      <c r="K67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" t="str">
         <f t="shared" si="0"/>
         <v>img/users/066.png</v>
       </c>
-      <c r="L67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3881,30 +4107,33 @@
       <c r="E68" s="2">
         <v>1838671081</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G68" s="2">
         <v>1838671081</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>301</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>6</v>
       </c>
-      <c r="I68" t="s">
-        <v>56</v>
-      </c>
       <c r="J68" t="s">
-        <v>53</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K131" si="1">LEFT(K67, 10) &amp; TEXT(VALUE(MID(K67, 11, 3)) + 1, "000") &amp; RIGHT(K67, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="K68" t="s">
+        <v>53</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" ref="L68:L131" si="1">LEFT(L67, 10) &amp; TEXT(VALUE(MID(L67, 11, 3)) + 1, "000") &amp; RIGHT(L67, 4)</f>
         <v>img/users/067.png</v>
       </c>
-      <c r="L68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3917,30 +4146,33 @@
       <c r="E69" s="2">
         <v>1882451699</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G69" s="2">
         <v>1882451699</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>301</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>7</v>
       </c>
-      <c r="I69" t="s">
-        <v>56</v>
-      </c>
       <c r="J69" t="s">
-        <v>53</v>
-      </c>
-      <c r="K69" t="str">
+        <v>56</v>
+      </c>
+      <c r="K69" t="s">
+        <v>53</v>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="1"/>
         <v>img/users/068.png</v>
       </c>
-      <c r="L69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3953,30 +4185,33 @@
       <c r="E70" s="2">
         <v>1834923104</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G70" s="2">
         <v>1834923104</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>301</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>8</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>57</v>
       </c>
-      <c r="J70" t="s">
-        <v>53</v>
-      </c>
-      <c r="K70" t="str">
+      <c r="K70" t="s">
+        <v>53</v>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="1"/>
         <v>img/users/069.png</v>
       </c>
-      <c r="L70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3992,30 +4227,33 @@
       <c r="E71" s="2">
         <v>1321874768</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G71" s="2">
         <v>1321874768</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>301</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>9</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>57</v>
       </c>
-      <c r="J71" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71" t="str">
+      <c r="K71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L71" t="str">
         <f t="shared" si="1"/>
         <v>img/users/070.png</v>
       </c>
-      <c r="L71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4031,30 +4269,33 @@
       <c r="E72" s="2">
         <v>1846291945</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="2">
         <v>1846291945</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>301</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>10</v>
       </c>
-      <c r="I72" t="s">
-        <v>56</v>
-      </c>
       <c r="J72" t="s">
-        <v>53</v>
-      </c>
-      <c r="K72" t="str">
+        <v>56</v>
+      </c>
+      <c r="K72" t="s">
+        <v>53</v>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" si="1"/>
         <v>img/users/071.png</v>
       </c>
-      <c r="L72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4070,30 +4311,33 @@
       <c r="E73" s="2">
         <v>1647450850</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G73" s="2">
         <v>1647450850</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>301</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>11</v>
       </c>
-      <c r="I73" t="s">
-        <v>56</v>
-      </c>
       <c r="J73" t="s">
-        <v>53</v>
-      </c>
-      <c r="K73" t="str">
+        <v>56</v>
+      </c>
+      <c r="K73" t="s">
+        <v>53</v>
+      </c>
+      <c r="L73" t="str">
         <f t="shared" si="1"/>
         <v>img/users/072.png</v>
       </c>
-      <c r="L73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4109,30 +4353,33 @@
       <c r="E74" s="2">
         <v>1862033668</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G74" s="2">
         <v>1862033668</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>12</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>57</v>
       </c>
-      <c r="J74" t="s">
-        <v>53</v>
-      </c>
-      <c r="K74" t="str">
+      <c r="K74" t="s">
+        <v>53</v>
+      </c>
+      <c r="L74" t="str">
         <f t="shared" si="1"/>
         <v>img/users/073.png</v>
       </c>
-      <c r="L74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4148,30 +4395,33 @@
       <c r="E75" s="2">
         <v>1935833923</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75" s="2">
         <v>1935833923</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>302</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>57</v>
       </c>
-      <c r="J75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K75" t="str">
+      <c r="K75" t="s">
+        <v>53</v>
+      </c>
+      <c r="L75" t="str">
         <f t="shared" si="1"/>
         <v>img/users/074.png</v>
       </c>
-      <c r="L75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4187,30 +4437,33 @@
       <c r="E76" s="2">
         <v>1849611309</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76" s="2">
         <v>1849611309</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>302</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>2</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>57</v>
       </c>
-      <c r="J76" t="s">
-        <v>53</v>
-      </c>
-      <c r="K76" t="str">
+      <c r="K76" t="s">
+        <v>53</v>
+      </c>
+      <c r="L76" t="str">
         <f t="shared" si="1"/>
         <v>img/users/075.png</v>
       </c>
-      <c r="L76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4226,30 +4479,33 @@
       <c r="E77" s="2">
         <v>1836400332</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G77" s="2">
         <v>1836400332</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>302</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>3</v>
       </c>
-      <c r="I77" t="s">
-        <v>56</v>
-      </c>
       <c r="J77" t="s">
-        <v>53</v>
-      </c>
-      <c r="K77" t="str">
+        <v>56</v>
+      </c>
+      <c r="K77" t="s">
+        <v>53</v>
+      </c>
+      <c r="L77" t="str">
         <f t="shared" si="1"/>
         <v>img/users/076.png</v>
       </c>
-      <c r="L77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4265,30 +4521,33 @@
       <c r="E78" s="2">
         <v>1945689349</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G78" s="2">
         <v>1945689349</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>302</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>4</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>57</v>
       </c>
-      <c r="J78" t="s">
-        <v>53</v>
-      </c>
-      <c r="K78" t="str">
+      <c r="K78" t="s">
+        <v>53</v>
+      </c>
+      <c r="L78" t="str">
         <f t="shared" si="1"/>
         <v>img/users/077.png</v>
       </c>
-      <c r="L78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4304,30 +4563,33 @@
       <c r="E79" s="2">
         <v>1874452576</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="2">
         <v>1874452576</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>302</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>5</v>
       </c>
-      <c r="I79" t="s">
-        <v>56</v>
-      </c>
       <c r="J79" t="s">
-        <v>53</v>
-      </c>
-      <c r="K79" t="str">
+        <v>56</v>
+      </c>
+      <c r="K79" t="s">
+        <v>53</v>
+      </c>
+      <c r="L79" t="str">
         <f t="shared" si="1"/>
         <v>img/users/078.png</v>
       </c>
-      <c r="L79" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4340,30 +4602,33 @@
       <c r="E80" s="2">
         <v>1738815380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G80" s="2">
         <v>1738815380</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>302</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>6</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>57</v>
       </c>
-      <c r="J80" t="s">
-        <v>53</v>
-      </c>
-      <c r="K80" t="str">
+      <c r="K80" t="s">
+        <v>53</v>
+      </c>
+      <c r="L80" t="str">
         <f t="shared" si="1"/>
         <v>img/users/079.png</v>
       </c>
-      <c r="L80" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4379,30 +4644,33 @@
       <c r="E81" s="2">
         <v>1772040282</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G81" s="2">
         <v>1772040282</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>302</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>7</v>
       </c>
-      <c r="I81" t="s">
-        <v>56</v>
-      </c>
       <c r="J81" t="s">
-        <v>53</v>
-      </c>
-      <c r="K81" t="str">
+        <v>56</v>
+      </c>
+      <c r="K81" t="s">
+        <v>53</v>
+      </c>
+      <c r="L81" t="str">
         <f t="shared" si="1"/>
         <v>img/users/080.png</v>
       </c>
-      <c r="L81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4412,33 +4680,39 @@
       <c r="C82" t="s">
         <v>182</v>
       </c>
+      <c r="D82">
+        <v>2574038</v>
+      </c>
       <c r="E82" s="2">
         <v>1849951203</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G82" s="2">
         <v>1849951203</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>302</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>8</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>57</v>
       </c>
-      <c r="J82" t="s">
-        <v>53</v>
-      </c>
-      <c r="K82" t="str">
+      <c r="K82" t="s">
+        <v>53</v>
+      </c>
+      <c r="L82" t="str">
         <f t="shared" si="1"/>
         <v>img/users/081.png</v>
       </c>
-      <c r="L82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4448,33 +4722,39 @@
       <c r="C83" t="s">
         <v>184</v>
       </c>
+      <c r="D83">
+        <v>2575482</v>
+      </c>
       <c r="E83" s="2">
         <v>1866568171</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G83" s="2">
         <v>1866568171</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>302</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83" s="1">
         <v>9</v>
       </c>
-      <c r="I83" t="s">
-        <v>56</v>
-      </c>
       <c r="J83" t="s">
-        <v>53</v>
-      </c>
-      <c r="K83" t="str">
+        <v>56</v>
+      </c>
+      <c r="K83" t="s">
+        <v>53</v>
+      </c>
+      <c r="L83" t="str">
         <f t="shared" si="1"/>
         <v>img/users/082.png</v>
       </c>
-      <c r="L83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4490,30 +4770,33 @@
       <c r="E84" s="2">
         <v>1882795309</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G84" s="2">
         <v>1882795309</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>302</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>10</v>
       </c>
-      <c r="I84" t="s">
-        <v>56</v>
-      </c>
       <c r="J84" t="s">
-        <v>53</v>
-      </c>
-      <c r="K84" t="str">
+        <v>56</v>
+      </c>
+      <c r="K84" t="s">
+        <v>53</v>
+      </c>
+      <c r="L84" t="str">
         <f t="shared" si="1"/>
         <v>img/users/083.png</v>
       </c>
-      <c r="L84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4523,33 +4806,39 @@
       <c r="C85" t="s">
         <v>188</v>
       </c>
+      <c r="D85">
+        <v>2575490</v>
+      </c>
       <c r="E85" s="2">
         <v>1836093114</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G85" s="2">
         <v>1836093114</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>303</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>1</v>
       </c>
-      <c r="I85" t="s">
-        <v>56</v>
-      </c>
       <c r="J85" t="s">
-        <v>53</v>
-      </c>
-      <c r="K85" t="str">
+        <v>56</v>
+      </c>
+      <c r="K85" t="s">
+        <v>53</v>
+      </c>
+      <c r="L85" t="str">
         <f t="shared" si="1"/>
         <v>img/users/084.png</v>
       </c>
-      <c r="L85" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4565,30 +4854,33 @@
       <c r="E86" s="2">
         <v>1938507092</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G86" s="2">
         <v>1938507092</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>303</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>2</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>57</v>
       </c>
-      <c r="J86" t="s">
-        <v>53</v>
-      </c>
-      <c r="K86" t="str">
+      <c r="K86" t="s">
+        <v>53</v>
+      </c>
+      <c r="L86" t="str">
         <f t="shared" si="1"/>
         <v>img/users/085.png</v>
       </c>
-      <c r="L86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4604,30 +4896,33 @@
       <c r="E87" s="2">
         <v>1611273155</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G87" s="2">
         <v>1611273155</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>303</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>3</v>
       </c>
-      <c r="I87" t="s">
-        <v>56</v>
-      </c>
       <c r="J87" t="s">
-        <v>53</v>
-      </c>
-      <c r="K87" t="str">
+        <v>56</v>
+      </c>
+      <c r="K87" t="s">
+        <v>53</v>
+      </c>
+      <c r="L87" t="str">
         <f t="shared" si="1"/>
         <v>img/users/086.png</v>
       </c>
-      <c r="L87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4643,30 +4938,33 @@
       <c r="E88" s="2">
         <v>1830220161</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G88" s="2">
         <v>1830220161</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>304</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>1</v>
       </c>
-      <c r="I88" t="s">
-        <v>56</v>
-      </c>
       <c r="J88" t="s">
-        <v>53</v>
-      </c>
-      <c r="K88" t="str">
+        <v>56</v>
+      </c>
+      <c r="K88" t="s">
+        <v>53</v>
+      </c>
+      <c r="L88" t="str">
         <f t="shared" si="1"/>
         <v>img/users/087.png</v>
       </c>
-      <c r="L88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4679,30 +4977,33 @@
       <c r="E89" s="2">
         <v>1850180592</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G89" s="2">
         <v>1850180592</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>304</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>2</v>
       </c>
-      <c r="I89" t="s">
-        <v>56</v>
-      </c>
       <c r="J89" t="s">
-        <v>53</v>
-      </c>
-      <c r="K89" t="str">
+        <v>56</v>
+      </c>
+      <c r="K89" t="s">
+        <v>53</v>
+      </c>
+      <c r="L89" t="str">
         <f t="shared" si="1"/>
         <v>img/users/088.png</v>
       </c>
-      <c r="L89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4718,30 +5019,33 @@
       <c r="E90" s="2">
         <v>1845812862</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G90" s="2">
         <v>1845812862</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>304</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>3</v>
       </c>
-      <c r="I90" t="s">
-        <v>56</v>
-      </c>
       <c r="J90" t="s">
-        <v>53</v>
-      </c>
-      <c r="K90" t="str">
+        <v>56</v>
+      </c>
+      <c r="K90" t="s">
+        <v>53</v>
+      </c>
+      <c r="L90" t="str">
         <f t="shared" si="1"/>
         <v>img/users/089.png</v>
       </c>
-      <c r="L90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4757,30 +5061,33 @@
       <c r="E91" s="2">
         <v>1994001153</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G91" s="2">
         <v>1994001153</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>304</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>4</v>
       </c>
-      <c r="I91" t="s">
-        <v>56</v>
-      </c>
       <c r="J91" t="s">
-        <v>53</v>
-      </c>
-      <c r="K91" t="str">
+        <v>56</v>
+      </c>
+      <c r="K91" t="s">
+        <v>53</v>
+      </c>
+      <c r="L91" t="str">
         <f t="shared" si="1"/>
         <v>img/users/090.png</v>
       </c>
-      <c r="L91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4793,30 +5100,33 @@
       <c r="E92" s="2">
         <v>1812575333</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G92" s="2">
         <v>1812575333</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>304</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>5</v>
       </c>
-      <c r="I92" t="s">
-        <v>56</v>
-      </c>
       <c r="J92" t="s">
-        <v>53</v>
-      </c>
-      <c r="K92" t="str">
+        <v>56</v>
+      </c>
+      <c r="K92" t="s">
+        <v>53</v>
+      </c>
+      <c r="L92" t="str">
         <f t="shared" si="1"/>
         <v>img/users/091.png</v>
       </c>
-      <c r="L92" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4832,30 +5142,33 @@
       <c r="E93" s="2">
         <v>1311817653</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" s="2">
         <v>1311817653</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>6</v>
       </c>
-      <c r="I93" t="s">
-        <v>56</v>
-      </c>
       <c r="J93" t="s">
-        <v>53</v>
-      </c>
-      <c r="K93" t="str">
+        <v>56</v>
+      </c>
+      <c r="K93" t="s">
+        <v>53</v>
+      </c>
+      <c r="L93" t="str">
         <f t="shared" si="1"/>
         <v>img/users/092.png</v>
       </c>
-      <c r="L93" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4868,30 +5181,33 @@
       <c r="E94" s="2">
         <v>1843231615</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" s="2">
         <v>1843231615</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>304</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>7</v>
       </c>
-      <c r="I94" t="s">
-        <v>56</v>
-      </c>
       <c r="J94" t="s">
-        <v>53</v>
-      </c>
-      <c r="K94" t="str">
+        <v>56</v>
+      </c>
+      <c r="K94" t="s">
+        <v>53</v>
+      </c>
+      <c r="L94" t="str">
         <f t="shared" si="1"/>
         <v>img/users/093.png</v>
       </c>
-      <c r="L94" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4904,30 +5220,33 @@
       <c r="E95" s="2">
         <v>1840040759</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G95" s="2">
         <v>1840040759</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>304</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>8</v>
       </c>
-      <c r="I95" t="s">
-        <v>56</v>
-      </c>
       <c r="J95" t="s">
-        <v>53</v>
-      </c>
-      <c r="K95" t="str">
+        <v>56</v>
+      </c>
+      <c r="K95" t="s">
+        <v>53</v>
+      </c>
+      <c r="L95" t="str">
         <f t="shared" si="1"/>
         <v>img/users/094.png</v>
       </c>
-      <c r="L95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4940,30 +5259,33 @@
       <c r="E96" s="2">
         <v>1892603020</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G96" s="2">
         <v>1892603020</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>304</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>9</v>
       </c>
-      <c r="I96" t="s">
-        <v>56</v>
-      </c>
       <c r="J96" t="s">
-        <v>53</v>
-      </c>
-      <c r="K96" t="str">
+        <v>56</v>
+      </c>
+      <c r="K96" t="s">
+        <v>53</v>
+      </c>
+      <c r="L96" t="str">
         <f t="shared" si="1"/>
         <v>img/users/095.png</v>
       </c>
-      <c r="L96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4976,30 +5298,33 @@
       <c r="E97" s="2">
         <v>1739291950</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G97" s="2">
         <v>1739291950</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>304</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>10</v>
       </c>
-      <c r="I97" t="s">
-        <v>56</v>
-      </c>
       <c r="J97" t="s">
-        <v>53</v>
-      </c>
-      <c r="K97" t="str">
+        <v>56</v>
+      </c>
+      <c r="K97" t="s">
+        <v>53</v>
+      </c>
+      <c r="L97" t="str">
         <f t="shared" si="1"/>
         <v>img/users/096.png</v>
       </c>
-      <c r="L97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5015,30 +5340,33 @@
       <c r="E98" s="2">
         <v>1319212955</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="2">
         <v>1319212955</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>304</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>11</v>
       </c>
-      <c r="I98" t="s">
-        <v>56</v>
-      </c>
       <c r="J98" t="s">
-        <v>53</v>
-      </c>
-      <c r="K98" t="str">
+        <v>56</v>
+      </c>
+      <c r="K98" t="s">
+        <v>53</v>
+      </c>
+      <c r="L98" t="str">
         <f t="shared" si="1"/>
         <v>img/users/097.png</v>
       </c>
-      <c r="L98" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5054,30 +5382,33 @@
       <c r="E99" s="2">
         <v>1308515023</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" s="2">
         <v>1308515023</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>304</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
-        <v>56</v>
-      </c>
       <c r="J99" t="s">
-        <v>53</v>
-      </c>
-      <c r="K99" t="str">
+        <v>56</v>
+      </c>
+      <c r="K99" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" t="str">
         <f t="shared" si="1"/>
         <v>img/users/098.png</v>
       </c>
-      <c r="L99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5090,30 +5421,33 @@
       <c r="E100" s="2">
         <v>1885145354</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G100" s="2">
         <v>1885145354</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>304</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>13</v>
       </c>
-      <c r="I100" t="s">
-        <v>56</v>
-      </c>
       <c r="J100" t="s">
-        <v>53</v>
-      </c>
-      <c r="K100" t="str">
+        <v>56</v>
+      </c>
+      <c r="K100" t="s">
+        <v>53</v>
+      </c>
+      <c r="L100" t="str">
         <f t="shared" si="1"/>
         <v>img/users/099.png</v>
       </c>
-      <c r="L100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5129,30 +5463,33 @@
       <c r="E101" s="2">
         <v>1817121031</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G101" s="2">
         <v>1817121031</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>304</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>14</v>
       </c>
-      <c r="I101" t="s">
-        <v>56</v>
-      </c>
       <c r="J101" t="s">
-        <v>53</v>
-      </c>
-      <c r="K101" t="str">
+        <v>56</v>
+      </c>
+      <c r="K101" t="s">
+        <v>53</v>
+      </c>
+      <c r="L101" t="str">
         <f t="shared" si="1"/>
         <v>img/users/100.png</v>
       </c>
-      <c r="L101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5165,30 +5502,33 @@
       <c r="E102" s="2">
         <v>1890696334</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G102" s="2">
         <v>1890696334</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>304</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>15</v>
       </c>
-      <c r="I102" t="s">
-        <v>56</v>
-      </c>
       <c r="J102" t="s">
-        <v>53</v>
-      </c>
-      <c r="K102" t="str">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>53</v>
+      </c>
+      <c r="L102" t="str">
         <f t="shared" si="1"/>
         <v>img/users/101.png</v>
       </c>
-      <c r="L102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5204,30 +5544,33 @@
       <c r="E103" s="2">
         <v>1752333530</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G103" s="2">
         <v>1752333530</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>304</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>16</v>
       </c>
-      <c r="I103" t="s">
-        <v>56</v>
-      </c>
       <c r="J103" t="s">
-        <v>53</v>
-      </c>
-      <c r="K103" t="str">
+        <v>56</v>
+      </c>
+      <c r="K103" t="s">
+        <v>53</v>
+      </c>
+      <c r="L103" t="str">
         <f t="shared" si="1"/>
         <v>img/users/102.png</v>
       </c>
-      <c r="L103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5240,30 +5583,33 @@
       <c r="E104" s="2">
         <v>1882001684</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G104" s="2">
         <v>1882001684</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>304</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <v>17</v>
       </c>
-      <c r="I104" t="s">
-        <v>56</v>
-      </c>
       <c r="J104" t="s">
-        <v>53</v>
-      </c>
-      <c r="K104" t="str">
+        <v>56</v>
+      </c>
+      <c r="K104" t="s">
+        <v>53</v>
+      </c>
+      <c r="L104" t="str">
         <f t="shared" si="1"/>
         <v>img/users/103.png</v>
       </c>
-      <c r="L104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5279,30 +5625,33 @@
       <c r="E105" s="2">
         <v>1818964658</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G105" s="2">
         <v>1818964658</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>304</v>
       </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
         <v>18</v>
       </c>
-      <c r="I105" t="s">
-        <v>56</v>
-      </c>
       <c r="J105" t="s">
-        <v>53</v>
-      </c>
-      <c r="K105" t="str">
+        <v>56</v>
+      </c>
+      <c r="K105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L105" t="str">
         <f t="shared" si="1"/>
         <v>img/users/104.png</v>
       </c>
-      <c r="L105" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5318,30 +5667,33 @@
       <c r="E106" s="2">
         <v>1857772887</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G106" s="2">
         <v>1857772887</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>304</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>19</v>
       </c>
-      <c r="I106" t="s">
-        <v>56</v>
-      </c>
       <c r="J106" t="s">
-        <v>53</v>
-      </c>
-      <c r="K106" t="str">
+        <v>56</v>
+      </c>
+      <c r="K106" t="s">
+        <v>53</v>
+      </c>
+      <c r="L106" t="str">
         <f t="shared" si="1"/>
         <v>img/users/105.png</v>
       </c>
-      <c r="L106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5354,30 +5706,33 @@
       <c r="E107" s="2">
         <v>1865893398</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G107" s="2">
         <v>1865893398</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>304</v>
       </c>
-      <c r="H107" s="1">
+      <c r="I107" s="1">
         <v>20</v>
       </c>
-      <c r="I107" t="s">
-        <v>56</v>
-      </c>
       <c r="J107" t="s">
-        <v>53</v>
-      </c>
-      <c r="K107" t="str">
+        <v>56</v>
+      </c>
+      <c r="K107" t="s">
+        <v>53</v>
+      </c>
+      <c r="L107" t="str">
         <f t="shared" si="1"/>
         <v>img/users/106.png</v>
       </c>
-      <c r="L107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5390,30 +5745,33 @@
       <c r="E108" s="2">
         <v>1863614556</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G108" s="2">
         <v>1863614556</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>304</v>
       </c>
-      <c r="H108" s="1">
+      <c r="I108" s="1">
         <v>21</v>
       </c>
-      <c r="I108" t="s">
-        <v>56</v>
-      </c>
       <c r="J108" t="s">
-        <v>53</v>
-      </c>
-      <c r="K108" t="str">
+        <v>56</v>
+      </c>
+      <c r="K108" t="s">
+        <v>53</v>
+      </c>
+      <c r="L108" t="str">
         <f t="shared" si="1"/>
         <v>img/users/107.png</v>
       </c>
-      <c r="L108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5426,30 +5784,33 @@
       <c r="E109" s="2">
         <v>1961934237</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G109" s="2">
         <v>1961934237</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>304</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>22</v>
       </c>
-      <c r="I109" t="s">
-        <v>56</v>
-      </c>
       <c r="J109" t="s">
-        <v>53</v>
-      </c>
-      <c r="K109" t="str">
+        <v>56</v>
+      </c>
+      <c r="K109" t="s">
+        <v>53</v>
+      </c>
+      <c r="L109" t="str">
         <f t="shared" si="1"/>
         <v>img/users/108.png</v>
       </c>
-      <c r="L109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5462,30 +5823,33 @@
       <c r="E110" s="2">
         <v>1827271294</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G110" s="2">
         <v>1827271294</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>304</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>23</v>
       </c>
-      <c r="I110" t="s">
-        <v>56</v>
-      </c>
       <c r="J110" t="s">
-        <v>53</v>
-      </c>
-      <c r="K110" t="str">
+        <v>56</v>
+      </c>
+      <c r="K110" t="s">
+        <v>53</v>
+      </c>
+      <c r="L110" t="str">
         <f t="shared" si="1"/>
         <v>img/users/109.png</v>
       </c>
-      <c r="L110" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5498,30 +5862,33 @@
       <c r="E111" s="2">
         <v>1859897358</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G111" s="2">
         <v>1859897358</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>304</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>24</v>
       </c>
-      <c r="I111" t="s">
-        <v>56</v>
-      </c>
       <c r="J111" t="s">
-        <v>53</v>
-      </c>
-      <c r="K111" t="str">
+        <v>56</v>
+      </c>
+      <c r="K111" t="s">
+        <v>53</v>
+      </c>
+      <c r="L111" t="str">
         <f t="shared" si="1"/>
         <v>img/users/110.png</v>
       </c>
-      <c r="L111" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5534,30 +5901,33 @@
       <c r="E112" s="2">
         <v>1872078961</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G112" s="2">
         <v>1872078961</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>304</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>25</v>
       </c>
-      <c r="I112" t="s">
-        <v>56</v>
-      </c>
       <c r="J112" t="s">
-        <v>53</v>
-      </c>
-      <c r="K112" t="str">
+        <v>56</v>
+      </c>
+      <c r="K112" t="s">
+        <v>53</v>
+      </c>
+      <c r="L112" t="str">
         <f t="shared" si="1"/>
         <v>img/users/111.png</v>
       </c>
-      <c r="L112" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5573,30 +5943,33 @@
       <c r="E113" s="2">
         <v>1716405432</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G113" s="2">
         <v>1716405432</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>304</v>
       </c>
-      <c r="H113" s="1">
+      <c r="I113" s="1">
         <v>26</v>
       </c>
-      <c r="I113" t="s">
-        <v>56</v>
-      </c>
       <c r="J113" t="s">
-        <v>53</v>
-      </c>
-      <c r="K113" t="str">
+        <v>56</v>
+      </c>
+      <c r="K113" t="s">
+        <v>53</v>
+      </c>
+      <c r="L113" t="str">
         <f t="shared" si="1"/>
         <v>img/users/112.png</v>
       </c>
-      <c r="L113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5613,29 +5986,32 @@
         <v>242</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>304</v>
       </c>
-      <c r="H114" s="1">
+      <c r="I114" s="1">
         <v>27</v>
       </c>
-      <c r="I114" t="s">
-        <v>56</v>
-      </c>
       <c r="J114" t="s">
-        <v>53</v>
-      </c>
-      <c r="K114" t="str">
+        <v>56</v>
+      </c>
+      <c r="K114" t="s">
+        <v>53</v>
+      </c>
+      <c r="L114" t="str">
         <f t="shared" si="1"/>
         <v>img/users/113.png</v>
       </c>
-      <c r="L114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5648,30 +6024,33 @@
       <c r="E115" s="2">
         <v>1888038201</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G115" s="2">
         <v>1888038201</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>304</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>28</v>
       </c>
-      <c r="I115" t="s">
-        <v>56</v>
-      </c>
       <c r="J115" t="s">
-        <v>53</v>
-      </c>
-      <c r="K115" t="str">
+        <v>56</v>
+      </c>
+      <c r="K115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L115" t="str">
         <f t="shared" si="1"/>
         <v>img/users/114.png</v>
       </c>
-      <c r="L115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5687,30 +6066,33 @@
       <c r="E116" s="2">
         <v>1887931083</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G116" s="2">
         <v>1887931083</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>304</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I116" s="1">
         <v>29</v>
       </c>
-      <c r="I116" t="s">
-        <v>56</v>
-      </c>
       <c r="J116" t="s">
-        <v>53</v>
-      </c>
-      <c r="K116" t="str">
+        <v>56</v>
+      </c>
+      <c r="K116" t="s">
+        <v>53</v>
+      </c>
+      <c r="L116" t="str">
         <f t="shared" si="1"/>
         <v>img/users/115.png</v>
       </c>
-      <c r="L116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5724,29 +6106,32 @@
         <v>242</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>304</v>
       </c>
-      <c r="H117" s="1">
+      <c r="I117" s="1">
         <v>30</v>
       </c>
-      <c r="I117" t="s">
-        <v>56</v>
-      </c>
       <c r="J117" t="s">
-        <v>53</v>
-      </c>
-      <c r="K117" t="str">
+        <v>56</v>
+      </c>
+      <c r="K117" t="s">
+        <v>53</v>
+      </c>
+      <c r="L117" t="str">
         <f t="shared" si="1"/>
         <v>img/users/116.png</v>
       </c>
-      <c r="L117" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5759,30 +6144,33 @@
       <c r="E118" s="2">
         <v>1607711969</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G118" s="2">
         <v>1607711969</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>304</v>
       </c>
-      <c r="H118" s="1">
+      <c r="I118" s="1">
         <v>31</v>
       </c>
-      <c r="I118" t="s">
-        <v>56</v>
-      </c>
       <c r="J118" t="s">
-        <v>53</v>
-      </c>
-      <c r="K118" t="str">
+        <v>56</v>
+      </c>
+      <c r="K118" t="s">
+        <v>53</v>
+      </c>
+      <c r="L118" t="str">
         <f t="shared" si="1"/>
         <v>img/users/117.png</v>
       </c>
-      <c r="L118" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5798,30 +6186,33 @@
       <c r="E119" s="2">
         <v>1921332753</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G119" s="2">
         <v>1921332753</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>305</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>1</v>
       </c>
-      <c r="I119" t="s">
-        <v>56</v>
-      </c>
       <c r="J119" t="s">
-        <v>53</v>
-      </c>
-      <c r="K119" t="str">
+        <v>56</v>
+      </c>
+      <c r="K119" t="s">
+        <v>53</v>
+      </c>
+      <c r="L119" t="str">
         <f t="shared" si="1"/>
         <v>img/users/118.png</v>
       </c>
-      <c r="L119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5837,30 +6228,33 @@
       <c r="E120" s="2">
         <v>1861731807</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" s="2">
         <v>1861731807</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>305</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>2</v>
       </c>
-      <c r="I120" t="s">
-        <v>56</v>
-      </c>
       <c r="J120" t="s">
-        <v>53</v>
-      </c>
-      <c r="K120" t="str">
+        <v>56</v>
+      </c>
+      <c r="K120" t="s">
+        <v>53</v>
+      </c>
+      <c r="L120" t="str">
         <f t="shared" si="1"/>
         <v>img/users/119.png</v>
       </c>
-      <c r="L120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5873,30 +6267,33 @@
       <c r="E121" s="2">
         <v>1619146027</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G121" s="2">
         <v>1619146027</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>305</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>3</v>
       </c>
-      <c r="I121" t="s">
-        <v>56</v>
-      </c>
       <c r="J121" t="s">
-        <v>53</v>
-      </c>
-      <c r="K121" t="str">
+        <v>56</v>
+      </c>
+      <c r="K121" t="s">
+        <v>53</v>
+      </c>
+      <c r="L121" t="str">
         <f t="shared" si="1"/>
         <v>img/users/120.png</v>
       </c>
-      <c r="L121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5909,30 +6306,33 @@
       <c r="E122" s="2">
         <v>1882163610</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G122" s="2">
         <v>1882163610</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>305</v>
       </c>
-      <c r="H122" s="1">
+      <c r="I122" s="1">
         <v>4</v>
       </c>
-      <c r="I122" t="s">
-        <v>56</v>
-      </c>
       <c r="J122" t="s">
-        <v>53</v>
-      </c>
-      <c r="K122" t="str">
+        <v>56</v>
+      </c>
+      <c r="K122" t="s">
+        <v>53</v>
+      </c>
+      <c r="L122" t="str">
         <f t="shared" si="1"/>
         <v>img/users/121.png</v>
       </c>
-      <c r="L122" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5948,30 +6348,33 @@
       <c r="E123" s="2">
         <v>1988312596</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G123" s="2">
         <v>1988312596</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>305</v>
       </c>
-      <c r="H123" s="1">
+      <c r="I123" s="1">
         <v>5</v>
       </c>
-      <c r="I123" t="s">
-        <v>56</v>
-      </c>
       <c r="J123" t="s">
-        <v>53</v>
-      </c>
-      <c r="K123" t="str">
+        <v>56</v>
+      </c>
+      <c r="K123" t="s">
+        <v>53</v>
+      </c>
+      <c r="L123" t="str">
         <f t="shared" si="1"/>
         <v>img/users/122.png</v>
       </c>
-      <c r="L123" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5987,30 +6390,33 @@
       <c r="E124" s="2">
         <v>1872501404</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G124" s="2">
         <v>1872501404</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>305</v>
       </c>
-      <c r="H124" s="1">
+      <c r="I124" s="1">
         <v>6</v>
       </c>
-      <c r="I124" t="s">
-        <v>56</v>
-      </c>
       <c r="J124" t="s">
-        <v>53</v>
-      </c>
-      <c r="K124" t="str">
+        <v>56</v>
+      </c>
+      <c r="K124" t="s">
+        <v>53</v>
+      </c>
+      <c r="L124" t="str">
         <f t="shared" si="1"/>
         <v>img/users/123.png</v>
       </c>
-      <c r="L124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6026,30 +6432,33 @@
       <c r="E125" s="2">
         <v>1833227757</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G125" s="2">
         <v>1833227757</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>305</v>
       </c>
-      <c r="H125" s="1">
+      <c r="I125" s="1">
         <v>7</v>
       </c>
-      <c r="I125" t="s">
-        <v>56</v>
-      </c>
       <c r="J125" t="s">
-        <v>53</v>
-      </c>
-      <c r="K125" t="str">
+        <v>56</v>
+      </c>
+      <c r="K125" t="s">
+        <v>53</v>
+      </c>
+      <c r="L125" t="str">
         <f t="shared" si="1"/>
         <v>img/users/124.png</v>
       </c>
-      <c r="L125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6065,30 +6474,33 @@
       <c r="E126" s="2">
         <v>1867112900</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G126" s="2">
         <v>1867112900</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>305</v>
       </c>
-      <c r="H126" s="1">
+      <c r="I126" s="1">
         <v>8</v>
       </c>
-      <c r="I126" t="s">
-        <v>56</v>
-      </c>
       <c r="J126" t="s">
-        <v>53</v>
-      </c>
-      <c r="K126" t="str">
+        <v>56</v>
+      </c>
+      <c r="K126" t="s">
+        <v>53</v>
+      </c>
+      <c r="L126" t="str">
         <f t="shared" si="1"/>
         <v>img/users/125.png</v>
       </c>
-      <c r="L126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6101,30 +6513,33 @@
       <c r="E127" s="2">
         <v>1861731807</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G127" s="2">
         <v>1861731807</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>305</v>
       </c>
-      <c r="H127" s="1">
+      <c r="I127" s="1">
         <v>9</v>
       </c>
-      <c r="I127" t="s">
-        <v>56</v>
-      </c>
       <c r="J127" t="s">
-        <v>53</v>
-      </c>
-      <c r="K127" t="str">
+        <v>56</v>
+      </c>
+      <c r="K127" t="s">
+        <v>53</v>
+      </c>
+      <c r="L127" t="str">
         <f t="shared" si="1"/>
         <v>img/users/126.png</v>
       </c>
-      <c r="L127" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6140,30 +6555,33 @@
       <c r="E128" s="2">
         <v>1998702325</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G128" s="2">
         <v>1998702325</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>305</v>
       </c>
-      <c r="H128" s="1">
+      <c r="I128" s="1">
         <v>10</v>
       </c>
-      <c r="I128" t="s">
-        <v>56</v>
-      </c>
       <c r="J128" t="s">
-        <v>53</v>
-      </c>
-      <c r="K128" t="str">
+        <v>56</v>
+      </c>
+      <c r="K128" t="s">
+        <v>53</v>
+      </c>
+      <c r="L128" t="str">
         <f t="shared" si="1"/>
         <v>img/users/127.png</v>
       </c>
-      <c r="L128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6179,30 +6597,33 @@
       <c r="E129" s="2">
         <v>1823755989</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G129" s="2">
         <v>1823755989</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>305</v>
       </c>
-      <c r="H129" s="1">
+      <c r="I129" s="1">
         <v>11</v>
       </c>
-      <c r="I129" t="s">
-        <v>56</v>
-      </c>
       <c r="J129" t="s">
-        <v>53</v>
-      </c>
-      <c r="K129" t="str">
+        <v>56</v>
+      </c>
+      <c r="K129" t="s">
+        <v>53</v>
+      </c>
+      <c r="L129" t="str">
         <f t="shared" si="1"/>
         <v>img/users/128.png</v>
       </c>
-      <c r="L129" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6215,30 +6636,33 @@
       <c r="E130" s="2">
         <v>1837599620</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G130" s="2">
         <v>1837599620</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>305</v>
       </c>
-      <c r="H130" s="1">
+      <c r="I130" s="1">
         <v>12</v>
       </c>
-      <c r="I130" t="s">
-        <v>56</v>
-      </c>
       <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130" t="str">
+        <v>56</v>
+      </c>
+      <c r="K130" t="s">
+        <v>53</v>
+      </c>
+      <c r="L130" t="str">
         <f t="shared" si="1"/>
         <v>img/users/129.png</v>
       </c>
-      <c r="L130" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6251,30 +6675,33 @@
       <c r="E131" s="2">
         <v>1871226057</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G131" s="2">
         <v>1871226057</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>305</v>
       </c>
-      <c r="H131" s="1">
+      <c r="I131" s="1">
         <v>13</v>
       </c>
-      <c r="I131" t="s">
-        <v>56</v>
-      </c>
       <c r="J131" t="s">
-        <v>53</v>
-      </c>
-      <c r="K131" t="str">
+        <v>56</v>
+      </c>
+      <c r="K131" t="s">
+        <v>53</v>
+      </c>
+      <c r="L131" t="str">
         <f t="shared" si="1"/>
         <v>img/users/130.png</v>
       </c>
-      <c r="L131" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6290,30 +6717,33 @@
       <c r="E132" s="2">
         <v>1825114380</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G132" s="2">
         <v>1825114380</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>305</v>
       </c>
-      <c r="H132" s="1">
+      <c r="I132" s="1">
         <v>14</v>
       </c>
-      <c r="I132" t="s">
-        <v>56</v>
-      </c>
       <c r="J132" t="s">
-        <v>53</v>
-      </c>
-      <c r="K132" t="str">
-        <f t="shared" ref="K132:K138" si="2">LEFT(K131, 10) &amp; TEXT(VALUE(MID(K131, 11, 3)) + 1, "000") &amp; RIGHT(K131, 4)</f>
+        <v>56</v>
+      </c>
+      <c r="K132" t="s">
+        <v>53</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" ref="L132:L138" si="2">LEFT(L131, 10) &amp; TEXT(VALUE(MID(L131, 11, 3)) + 1, "000") &amp; RIGHT(L131, 4)</f>
         <v>img/users/131.png</v>
       </c>
-      <c r="L132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6329,30 +6759,33 @@
       <c r="E133" s="2">
         <v>1815745696</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G133" s="2">
         <v>1815745696</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>305</v>
       </c>
-      <c r="H133" s="1">
+      <c r="I133" s="1">
         <v>15</v>
       </c>
-      <c r="I133" t="s">
-        <v>56</v>
-      </c>
       <c r="J133" t="s">
-        <v>53</v>
-      </c>
-      <c r="K133" t="str">
+        <v>56</v>
+      </c>
+      <c r="K133" t="s">
+        <v>53</v>
+      </c>
+      <c r="L133" t="str">
         <f t="shared" si="2"/>
         <v>img/users/132.png</v>
       </c>
-      <c r="L133" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6368,30 +6801,33 @@
       <c r="E134" s="2">
         <v>1839553538</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G134" s="2">
         <v>1839553538</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>305</v>
       </c>
-      <c r="H134" s="1">
+      <c r="I134" s="1">
         <v>16</v>
       </c>
-      <c r="I134" t="s">
-        <v>56</v>
-      </c>
       <c r="J134" t="s">
-        <v>53</v>
-      </c>
-      <c r="K134" t="str">
+        <v>56</v>
+      </c>
+      <c r="K134" t="s">
+        <v>53</v>
+      </c>
+      <c r="L134" t="str">
         <f t="shared" si="2"/>
         <v>img/users/133.png</v>
       </c>
-      <c r="L134" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6404,30 +6840,33 @@
       <c r="E135" s="2">
         <v>1848112292</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G135" s="2">
         <v>1848112292</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>305</v>
       </c>
-      <c r="H135" s="1">
+      <c r="I135" s="1">
         <v>17</v>
       </c>
-      <c r="I135" t="s">
-        <v>56</v>
-      </c>
       <c r="J135" t="s">
-        <v>53</v>
-      </c>
-      <c r="K135" t="str">
+        <v>56</v>
+      </c>
+      <c r="K135" t="s">
+        <v>53</v>
+      </c>
+      <c r="L135" t="str">
         <f t="shared" si="2"/>
         <v>img/users/134.png</v>
       </c>
-      <c r="L135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6440,30 +6879,33 @@
       <c r="E136" s="2">
         <v>1889333980</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G136" s="2">
         <v>1889333980</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>305</v>
       </c>
-      <c r="H136" s="1">
+      <c r="I136" s="1">
         <v>18</v>
       </c>
-      <c r="I136" t="s">
-        <v>56</v>
-      </c>
       <c r="J136" t="s">
-        <v>53</v>
-      </c>
-      <c r="K136" t="str">
+        <v>56</v>
+      </c>
+      <c r="K136" t="s">
+        <v>53</v>
+      </c>
+      <c r="L136" t="str">
         <f t="shared" si="2"/>
         <v>img/users/135.png</v>
       </c>
-      <c r="L136" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6479,30 +6921,33 @@
       <c r="E137" s="2">
         <v>1727801075</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G137" s="2">
         <v>1727801075</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>306</v>
       </c>
-      <c r="H137" s="1">
+      <c r="I137" s="1">
         <v>1</v>
       </c>
-      <c r="I137" t="s">
-        <v>56</v>
-      </c>
       <c r="J137" t="s">
-        <v>53</v>
-      </c>
-      <c r="K137" t="str">
+        <v>56</v>
+      </c>
+      <c r="K137" t="s">
+        <v>53</v>
+      </c>
+      <c r="L137" t="str">
         <f t="shared" si="2"/>
         <v>img/users/136.png</v>
       </c>
-      <c r="L137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6518,26 +6963,29 @@
       <c r="E138" s="2">
         <v>1617553845</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G138" s="2">
         <v>1617553845</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>306</v>
       </c>
-      <c r="H138" s="1">
+      <c r="I138" s="1">
         <v>2</v>
       </c>
-      <c r="I138" t="s">
-        <v>56</v>
-      </c>
       <c r="J138" t="s">
-        <v>53</v>
-      </c>
-      <c r="K138" t="str">
+        <v>56</v>
+      </c>
+      <c r="K138" t="s">
+        <v>53</v>
+      </c>
+      <c r="L138" t="str">
         <f t="shared" si="2"/>
         <v>img/users/137.png</v>
       </c>
-      <c r="L138" t="s">
+      <c r="M138" t="s">
         <v>55</v>
       </c>
     </row>

--- a/apps/database/json/studentModel.xlsx
+++ b/apps/database/json/studentModel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3255" uniqueCount="381">
   <si>
     <t>id</t>
   </si>
@@ -1149,6 +1149,15 @@
   </si>
   <si>
     <t>Campas-1 | Biswas Para</t>
+  </si>
+  <si>
+    <t>Nazera Group</t>
+  </si>
+  <si>
+    <t>Hifz Group</t>
+  </si>
+  <si>
+    <t>Rivision Group</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="BR114" workbookViewId="0">
+      <selection activeCell="BV131" sqref="BV131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8081,7 +8090,7 @@
         <v>365</v>
       </c>
       <c r="Y88" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z88" s="1">
         <v>1</v>
@@ -8153,7 +8162,7 @@
         <v>365</v>
       </c>
       <c r="Y89" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z89" s="1">
         <v>2</v>
@@ -8222,7 +8231,7 @@
         <v>365</v>
       </c>
       <c r="Y90" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z90" s="1">
         <v>3</v>
@@ -8294,7 +8303,7 @@
         <v>365</v>
       </c>
       <c r="Y91" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z91" s="1">
         <v>4</v>
@@ -8366,7 +8375,7 @@
         <v>365</v>
       </c>
       <c r="Y92" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z92" s="1">
         <v>5</v>
@@ -8435,7 +8444,7 @@
         <v>365</v>
       </c>
       <c r="Y93" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z93" s="1">
         <v>6</v>
@@ -8507,7 +8516,7 @@
         <v>365</v>
       </c>
       <c r="Y94" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z94" s="1">
         <v>7</v>
@@ -8576,7 +8585,7 @@
         <v>365</v>
       </c>
       <c r="Y95" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z95" s="1">
         <v>8</v>
@@ -8645,7 +8654,7 @@
         <v>365</v>
       </c>
       <c r="Y96" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z96" s="1">
         <v>9</v>
@@ -8714,7 +8723,7 @@
         <v>365</v>
       </c>
       <c r="Y97" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z97" s="1">
         <v>10</v>
@@ -8783,7 +8792,7 @@
         <v>365</v>
       </c>
       <c r="Y98" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z98" s="1">
         <v>11</v>
@@ -8855,7 +8864,7 @@
         <v>365</v>
       </c>
       <c r="Y99" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z99" s="1">
         <v>12</v>
@@ -8927,7 +8936,7 @@
         <v>365</v>
       </c>
       <c r="Y100" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z100" s="1">
         <v>13</v>
@@ -8996,7 +9005,7 @@
         <v>365</v>
       </c>
       <c r="Y101" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z101" s="1">
         <v>14</v>
@@ -9068,7 +9077,7 @@
         <v>365</v>
       </c>
       <c r="Y102" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z102" s="1">
         <v>15</v>
@@ -9137,7 +9146,7 @@
         <v>365</v>
       </c>
       <c r="Y103" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z103" s="1">
         <v>16</v>
@@ -9209,7 +9218,7 @@
         <v>365</v>
       </c>
       <c r="Y104" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z104" s="1">
         <v>17</v>
@@ -9278,7 +9287,7 @@
         <v>365</v>
       </c>
       <c r="Y105" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z105" s="1">
         <v>18</v>
@@ -9350,7 +9359,7 @@
         <v>365</v>
       </c>
       <c r="Y106" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z106" s="1">
         <v>19</v>
@@ -9422,7 +9431,7 @@
         <v>365</v>
       </c>
       <c r="Y107" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z107" s="1">
         <v>20</v>
@@ -9491,7 +9500,7 @@
         <v>365</v>
       </c>
       <c r="Y108" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z108" s="1">
         <v>21</v>
@@ -9560,7 +9569,7 @@
         <v>365</v>
       </c>
       <c r="Y109" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z109" s="1">
         <v>22</v>
@@ -9629,7 +9638,7 @@
         <v>365</v>
       </c>
       <c r="Y110" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z110" s="1">
         <v>23</v>
@@ -9698,7 +9707,7 @@
         <v>365</v>
       </c>
       <c r="Y111" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z111" s="1">
         <v>24</v>
@@ -9767,7 +9776,7 @@
         <v>365</v>
       </c>
       <c r="Y112" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z112" s="1">
         <v>25</v>
@@ -9836,7 +9845,7 @@
         <v>365</v>
       </c>
       <c r="Y113" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z113" s="1">
         <v>26</v>
@@ -9908,7 +9917,7 @@
         <v>365</v>
       </c>
       <c r="Y114" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z114" s="1">
         <v>27</v>
@@ -9980,7 +9989,7 @@
         <v>365</v>
       </c>
       <c r="Y115" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z115" s="1">
         <v>28</v>
@@ -10049,7 +10058,7 @@
         <v>365</v>
       </c>
       <c r="Y116" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z116" s="1">
         <v>29</v>
@@ -10121,7 +10130,7 @@
         <v>365</v>
       </c>
       <c r="Y117" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z117" s="1">
         <v>30</v>
@@ -10190,7 +10199,7 @@
         <v>365</v>
       </c>
       <c r="Y118" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="Z118" s="1">
         <v>31</v>
@@ -10259,7 +10268,7 @@
         <v>365</v>
       </c>
       <c r="Y119" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z119" s="1">
         <v>1</v>
@@ -10331,7 +10340,7 @@
         <v>365</v>
       </c>
       <c r="Y120" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z120" s="1">
         <v>2</v>
@@ -10403,7 +10412,7 @@
         <v>365</v>
       </c>
       <c r="Y121" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z121" s="1">
         <v>3</v>
@@ -10472,7 +10481,7 @@
         <v>365</v>
       </c>
       <c r="Y122" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z122" s="1">
         <v>4</v>
@@ -10541,7 +10550,7 @@
         <v>365</v>
       </c>
       <c r="Y123" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z123" s="1">
         <v>5</v>
@@ -10613,7 +10622,7 @@
         <v>365</v>
       </c>
       <c r="Y124" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z124" s="1">
         <v>6</v>
@@ -10685,7 +10694,7 @@
         <v>365</v>
       </c>
       <c r="Y125" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z125" s="1">
         <v>7</v>
@@ -10757,7 +10766,7 @@
         <v>365</v>
       </c>
       <c r="Y126" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z126" s="1">
         <v>8</v>
@@ -10829,7 +10838,7 @@
         <v>365</v>
       </c>
       <c r="Y127" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z127" s="1">
         <v>9</v>
@@ -10898,7 +10907,7 @@
         <v>365</v>
       </c>
       <c r="Y128" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z128" s="1">
         <v>10</v>
@@ -10970,7 +10979,7 @@
         <v>365</v>
       </c>
       <c r="Y129" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z129" s="1">
         <v>11</v>
@@ -11042,7 +11051,7 @@
         <v>365</v>
       </c>
       <c r="Y130" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z130" s="1">
         <v>12</v>
@@ -11111,7 +11120,7 @@
         <v>365</v>
       </c>
       <c r="Y131" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z131" s="1">
         <v>13</v>
@@ -11180,7 +11189,7 @@
         <v>365</v>
       </c>
       <c r="Y132" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z132" s="1">
         <v>14</v>
@@ -11252,7 +11261,7 @@
         <v>365</v>
       </c>
       <c r="Y133" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z133" s="1">
         <v>15</v>
@@ -11324,7 +11333,7 @@
         <v>365</v>
       </c>
       <c r="Y134" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z134" s="1">
         <v>16</v>
@@ -11396,7 +11405,7 @@
         <v>365</v>
       </c>
       <c r="Y135" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z135" s="1">
         <v>17</v>
@@ -11465,7 +11474,7 @@
         <v>365</v>
       </c>
       <c r="Y136" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="Z136" s="1">
         <v>18</v>
@@ -11534,7 +11543,7 @@
         <v>365</v>
       </c>
       <c r="Y137" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="Z137" s="1">
         <v>1</v>
@@ -11606,7 +11615,7 @@
         <v>365</v>
       </c>
       <c r="Y138" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="Z138" s="1">
         <v>2</v>
@@ -11632,7 +11641,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/apps/database/json/studentModel.xlsx
+++ b/apps/database/json/studentModel.xlsx
@@ -1145,9 +1145,6 @@
     <t>Residential Shift</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>Campas-1 | Biswas Para</t>
   </si>
   <si>
@@ -1158,6 +1155,9 @@
   </si>
   <si>
     <t>Rivision Group</t>
+  </si>
+  <si>
+    <t>Hifz-One</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BR114" workbookViewId="0">
-      <selection activeCell="BV131" sqref="BV131"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1592,7 @@
     <col min="19" max="19" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1928,7 +1928,7 @@
         <v>369</v>
       </c>
       <c r="T2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U2" t="s">
         <v>370</v>
@@ -2000,7 +2000,7 @@
         <v>369</v>
       </c>
       <c r="T3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U3" t="s">
         <v>370</v>
@@ -2072,7 +2072,7 @@
         <v>369</v>
       </c>
       <c r="T4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U4" t="s">
         <v>370</v>
@@ -2144,7 +2144,7 @@
         <v>369</v>
       </c>
       <c r="T5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U5" t="s">
         <v>370</v>
@@ -2216,7 +2216,7 @@
         <v>369</v>
       </c>
       <c r="T6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U6" t="s">
         <v>370</v>
@@ -2288,7 +2288,7 @@
         <v>369</v>
       </c>
       <c r="T7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U7" t="s">
         <v>370</v>
@@ -2360,7 +2360,7 @@
         <v>369</v>
       </c>
       <c r="T8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U8" t="s">
         <v>370</v>
@@ -2432,7 +2432,7 @@
         <v>369</v>
       </c>
       <c r="T9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U9" t="s">
         <v>370</v>
@@ -2501,7 +2501,7 @@
         <v>369</v>
       </c>
       <c r="T10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U10" t="s">
         <v>370</v>
@@ -2573,7 +2573,7 @@
         <v>369</v>
       </c>
       <c r="T11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U11" t="s">
         <v>370</v>
@@ -2645,7 +2645,7 @@
         <v>369</v>
       </c>
       <c r="T12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U12" t="s">
         <v>370</v>
@@ -2717,7 +2717,7 @@
         <v>369</v>
       </c>
       <c r="T13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U13" t="s">
         <v>370</v>
@@ -2789,7 +2789,7 @@
         <v>369</v>
       </c>
       <c r="T14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U14" t="s">
         <v>370</v>
@@ -2861,7 +2861,7 @@
         <v>369</v>
       </c>
       <c r="T15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U15" t="s">
         <v>370</v>
@@ -2933,7 +2933,7 @@
         <v>369</v>
       </c>
       <c r="T16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U16" t="s">
         <v>370</v>
@@ -3005,7 +3005,7 @@
         <v>369</v>
       </c>
       <c r="T17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U17" t="s">
         <v>370</v>
@@ -3074,7 +3074,7 @@
         <v>369</v>
       </c>
       <c r="T18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U18" t="s">
         <v>370</v>
@@ -3143,7 +3143,7 @@
         <v>369</v>
       </c>
       <c r="T19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U19" t="s">
         <v>370</v>
@@ -3215,7 +3215,7 @@
         <v>369</v>
       </c>
       <c r="T20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U20" t="s">
         <v>370</v>
@@ -3287,7 +3287,7 @@
         <v>369</v>
       </c>
       <c r="T21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U21" t="s">
         <v>370</v>
@@ -3359,7 +3359,7 @@
         <v>369</v>
       </c>
       <c r="T22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U22" t="s">
         <v>370</v>
@@ -3431,7 +3431,7 @@
         <v>369</v>
       </c>
       <c r="T23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U23" t="s">
         <v>370</v>
@@ -3503,7 +3503,7 @@
         <v>369</v>
       </c>
       <c r="T24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U24" t="s">
         <v>370</v>
@@ -3575,7 +3575,7 @@
         <v>369</v>
       </c>
       <c r="T25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U25" t="s">
         <v>370</v>
@@ -3647,7 +3647,7 @@
         <v>369</v>
       </c>
       <c r="T26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U26" t="s">
         <v>370</v>
@@ -3719,7 +3719,7 @@
         <v>369</v>
       </c>
       <c r="T27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U27" t="s">
         <v>370</v>
@@ -3791,7 +3791,7 @@
         <v>369</v>
       </c>
       <c r="T28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U28" t="s">
         <v>370</v>
@@ -3863,7 +3863,7 @@
         <v>369</v>
       </c>
       <c r="T29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U29" t="s">
         <v>370</v>
@@ -3935,7 +3935,7 @@
         <v>369</v>
       </c>
       <c r="T30" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U30" t="s">
         <v>370</v>
@@ -4007,7 +4007,7 @@
         <v>369</v>
       </c>
       <c r="T31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U31" t="s">
         <v>370</v>
@@ -4079,7 +4079,7 @@
         <v>369</v>
       </c>
       <c r="T32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U32" t="s">
         <v>370</v>
@@ -4151,7 +4151,7 @@
         <v>369</v>
       </c>
       <c r="T33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U33" t="s">
         <v>370</v>
@@ -4223,7 +4223,7 @@
         <v>369</v>
       </c>
       <c r="T34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U34" t="s">
         <v>370</v>
@@ -4295,7 +4295,7 @@
         <v>369</v>
       </c>
       <c r="T35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U35" t="s">
         <v>370</v>
@@ -4367,7 +4367,7 @@
         <v>369</v>
       </c>
       <c r="T36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U36" t="s">
         <v>370</v>
@@ -4439,7 +4439,7 @@
         <v>369</v>
       </c>
       <c r="T37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U37" t="s">
         <v>370</v>
@@ -4511,7 +4511,7 @@
         <v>369</v>
       </c>
       <c r="T38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U38" t="s">
         <v>370</v>
@@ -4583,7 +4583,7 @@
         <v>369</v>
       </c>
       <c r="T39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U39" t="s">
         <v>370</v>
@@ -4655,7 +4655,7 @@
         <v>369</v>
       </c>
       <c r="T40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U40" t="s">
         <v>370</v>
@@ -4727,7 +4727,7 @@
         <v>369</v>
       </c>
       <c r="T41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U41" t="s">
         <v>370</v>
@@ -4799,7 +4799,7 @@
         <v>369</v>
       </c>
       <c r="T42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U42" t="s">
         <v>371</v>
@@ -4871,7 +4871,7 @@
         <v>369</v>
       </c>
       <c r="T43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U43" t="s">
         <v>371</v>
@@ -4943,7 +4943,7 @@
         <v>369</v>
       </c>
       <c r="T44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U44" t="s">
         <v>371</v>
@@ -5015,7 +5015,7 @@
         <v>369</v>
       </c>
       <c r="T45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U45" t="s">
         <v>371</v>
@@ -5084,7 +5084,7 @@
         <v>369</v>
       </c>
       <c r="T46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U46" t="s">
         <v>371</v>
@@ -5156,7 +5156,7 @@
         <v>369</v>
       </c>
       <c r="T47" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U47" t="s">
         <v>371</v>
@@ -5228,7 +5228,7 @@
         <v>369</v>
       </c>
       <c r="T48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U48" t="s">
         <v>371</v>
@@ -5300,7 +5300,7 @@
         <v>369</v>
       </c>
       <c r="T49" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U49" t="s">
         <v>371</v>
@@ -5372,7 +5372,7 @@
         <v>369</v>
       </c>
       <c r="T50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U50" t="s">
         <v>371</v>
@@ -5441,7 +5441,7 @@
         <v>369</v>
       </c>
       <c r="T51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U51" t="s">
         <v>371</v>
@@ -5513,7 +5513,7 @@
         <v>369</v>
       </c>
       <c r="T52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U52" t="s">
         <v>371</v>
@@ -5582,7 +5582,7 @@
         <v>369</v>
       </c>
       <c r="T53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U53" t="s">
         <v>371</v>
@@ -5654,7 +5654,7 @@
         <v>369</v>
       </c>
       <c r="T54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U54" t="s">
         <v>371</v>
@@ -5726,7 +5726,7 @@
         <v>369</v>
       </c>
       <c r="T55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U55" t="s">
         <v>371</v>
@@ -5798,7 +5798,7 @@
         <v>369</v>
       </c>
       <c r="T56" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U56" t="s">
         <v>371</v>
@@ -5870,7 +5870,7 @@
         <v>369</v>
       </c>
       <c r="T57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U57" t="s">
         <v>371</v>
@@ -5942,7 +5942,7 @@
         <v>369</v>
       </c>
       <c r="T58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U58" t="s">
         <v>371</v>
@@ -6011,7 +6011,7 @@
         <v>369</v>
       </c>
       <c r="T59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U59" t="s">
         <v>371</v>
@@ -6083,7 +6083,7 @@
         <v>369</v>
       </c>
       <c r="T60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U60" t="s">
         <v>371</v>
@@ -6152,7 +6152,7 @@
         <v>369</v>
       </c>
       <c r="T61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U61" t="s">
         <v>371</v>
@@ -6221,7 +6221,7 @@
         <v>369</v>
       </c>
       <c r="T62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U62" t="s">
         <v>371</v>
@@ -6293,7 +6293,7 @@
         <v>369</v>
       </c>
       <c r="T63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U63" t="s">
         <v>371</v>
@@ -6365,7 +6365,7 @@
         <v>369</v>
       </c>
       <c r="T64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U64" t="s">
         <v>371</v>
@@ -6437,7 +6437,7 @@
         <v>369</v>
       </c>
       <c r="T65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U65" t="s">
         <v>371</v>
@@ -6509,7 +6509,7 @@
         <v>369</v>
       </c>
       <c r="T66" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U66" t="s">
         <v>371</v>
@@ -6578,7 +6578,7 @@
         <v>369</v>
       </c>
       <c r="T67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U67" t="s">
         <v>371</v>
@@ -6647,7 +6647,7 @@
         <v>369</v>
       </c>
       <c r="T68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U68" t="s">
         <v>371</v>
@@ -6716,7 +6716,7 @@
         <v>369</v>
       </c>
       <c r="T69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U69" t="s">
         <v>371</v>
@@ -6785,7 +6785,7 @@
         <v>369</v>
       </c>
       <c r="T70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U70" t="s">
         <v>371</v>
@@ -6854,7 +6854,7 @@
         <v>369</v>
       </c>
       <c r="T71" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U71" t="s">
         <v>371</v>
@@ -6926,7 +6926,7 @@
         <v>369</v>
       </c>
       <c r="T72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U72" t="s">
         <v>371</v>
@@ -6998,7 +6998,7 @@
         <v>369</v>
       </c>
       <c r="T73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U73" t="s">
         <v>371</v>
@@ -7070,7 +7070,7 @@
         <v>369</v>
       </c>
       <c r="T74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U74" t="s">
         <v>371</v>
@@ -7142,7 +7142,7 @@
         <v>369</v>
       </c>
       <c r="T75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U75" t="s">
         <v>371</v>
@@ -7214,7 +7214,7 @@
         <v>369</v>
       </c>
       <c r="T76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U76" t="s">
         <v>371</v>
@@ -7286,7 +7286,7 @@
         <v>369</v>
       </c>
       <c r="T77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U77" t="s">
         <v>371</v>
@@ -7358,7 +7358,7 @@
         <v>369</v>
       </c>
       <c r="T78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U78" t="s">
         <v>371</v>
@@ -7430,7 +7430,7 @@
         <v>369</v>
       </c>
       <c r="T79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U79" t="s">
         <v>371</v>
@@ -7502,7 +7502,7 @@
         <v>369</v>
       </c>
       <c r="T80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U80" t="s">
         <v>371</v>
@@ -7571,7 +7571,7 @@
         <v>369</v>
       </c>
       <c r="T81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U81" t="s">
         <v>371</v>
@@ -7643,7 +7643,7 @@
         <v>369</v>
       </c>
       <c r="T82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U82" t="s">
         <v>371</v>
@@ -7715,7 +7715,7 @@
         <v>369</v>
       </c>
       <c r="T83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U83" t="s">
         <v>371</v>
@@ -7787,7 +7787,7 @@
         <v>369</v>
       </c>
       <c r="T84" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U84" t="s">
         <v>371</v>
@@ -7859,7 +7859,7 @@
         <v>369</v>
       </c>
       <c r="T85" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U85" t="s">
         <v>372</v>
@@ -7931,7 +7931,7 @@
         <v>369</v>
       </c>
       <c r="T86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U86" t="s">
         <v>372</v>
@@ -8003,7 +8003,7 @@
         <v>369</v>
       </c>
       <c r="T87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U87" t="s">
         <v>372</v>
@@ -8075,13 +8075,13 @@
         <v>369</v>
       </c>
       <c r="T88" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U88" t="s">
         <v>373</v>
       </c>
       <c r="V88" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W88" t="s">
         <v>375</v>
@@ -8090,7 +8090,7 @@
         <v>365</v>
       </c>
       <c r="Y88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z88" s="1">
         <v>1</v>
@@ -8147,13 +8147,13 @@
         <v>369</v>
       </c>
       <c r="T89" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U89" t="s">
         <v>373</v>
       </c>
       <c r="V89" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W89" t="s">
         <v>375</v>
@@ -8162,7 +8162,7 @@
         <v>365</v>
       </c>
       <c r="Y89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z89" s="1">
         <v>2</v>
@@ -8216,13 +8216,13 @@
         <v>369</v>
       </c>
       <c r="T90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U90" t="s">
         <v>373</v>
       </c>
       <c r="V90" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W90" t="s">
         <v>375</v>
@@ -8231,7 +8231,7 @@
         <v>365</v>
       </c>
       <c r="Y90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z90" s="1">
         <v>3</v>
@@ -8288,13 +8288,13 @@
         <v>369</v>
       </c>
       <c r="T91" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U91" t="s">
         <v>373</v>
       </c>
       <c r="V91" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W91" t="s">
         <v>375</v>
@@ -8303,7 +8303,7 @@
         <v>365</v>
       </c>
       <c r="Y91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z91" s="1">
         <v>4</v>
@@ -8360,13 +8360,13 @@
         <v>369</v>
       </c>
       <c r="T92" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U92" t="s">
         <v>373</v>
       </c>
       <c r="V92" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W92" t="s">
         <v>375</v>
@@ -8375,7 +8375,7 @@
         <v>365</v>
       </c>
       <c r="Y92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z92" s="1">
         <v>5</v>
@@ -8429,13 +8429,13 @@
         <v>369</v>
       </c>
       <c r="T93" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U93" t="s">
         <v>373</v>
       </c>
       <c r="V93" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W93" t="s">
         <v>375</v>
@@ -8444,7 +8444,7 @@
         <v>365</v>
       </c>
       <c r="Y93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z93" s="1">
         <v>6</v>
@@ -8501,13 +8501,13 @@
         <v>369</v>
       </c>
       <c r="T94" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U94" t="s">
         <v>373</v>
       </c>
       <c r="V94" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W94" t="s">
         <v>375</v>
@@ -8516,7 +8516,7 @@
         <v>365</v>
       </c>
       <c r="Y94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z94" s="1">
         <v>7</v>
@@ -8570,13 +8570,13 @@
         <v>369</v>
       </c>
       <c r="T95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U95" t="s">
         <v>373</v>
       </c>
       <c r="V95" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W95" t="s">
         <v>375</v>
@@ -8585,7 +8585,7 @@
         <v>365</v>
       </c>
       <c r="Y95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z95" s="1">
         <v>8</v>
@@ -8639,13 +8639,13 @@
         <v>369</v>
       </c>
       <c r="T96" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U96" t="s">
         <v>373</v>
       </c>
       <c r="V96" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W96" t="s">
         <v>375</v>
@@ -8654,7 +8654,7 @@
         <v>365</v>
       </c>
       <c r="Y96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z96" s="1">
         <v>9</v>
@@ -8708,13 +8708,13 @@
         <v>369</v>
       </c>
       <c r="T97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U97" t="s">
         <v>373</v>
       </c>
       <c r="V97" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W97" t="s">
         <v>375</v>
@@ -8723,7 +8723,7 @@
         <v>365</v>
       </c>
       <c r="Y97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z97" s="1">
         <v>10</v>
@@ -8777,13 +8777,13 @@
         <v>369</v>
       </c>
       <c r="T98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U98" t="s">
         <v>373</v>
       </c>
       <c r="V98" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W98" t="s">
         <v>375</v>
@@ -8792,7 +8792,7 @@
         <v>365</v>
       </c>
       <c r="Y98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z98" s="1">
         <v>11</v>
@@ -8849,13 +8849,13 @@
         <v>369</v>
       </c>
       <c r="T99" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U99" t="s">
         <v>373</v>
       </c>
       <c r="V99" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W99" t="s">
         <v>375</v>
@@ -8864,7 +8864,7 @@
         <v>365</v>
       </c>
       <c r="Y99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z99" s="1">
         <v>12</v>
@@ -8921,13 +8921,13 @@
         <v>369</v>
       </c>
       <c r="T100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U100" t="s">
         <v>373</v>
       </c>
       <c r="V100" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W100" t="s">
         <v>375</v>
@@ -8936,7 +8936,7 @@
         <v>365</v>
       </c>
       <c r="Y100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z100" s="1">
         <v>13</v>
@@ -8990,13 +8990,13 @@
         <v>369</v>
       </c>
       <c r="T101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U101" t="s">
         <v>373</v>
       </c>
       <c r="V101" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W101" t="s">
         <v>375</v>
@@ -9005,7 +9005,7 @@
         <v>365</v>
       </c>
       <c r="Y101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z101" s="1">
         <v>14</v>
@@ -9062,13 +9062,13 @@
         <v>369</v>
       </c>
       <c r="T102" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U102" t="s">
         <v>373</v>
       </c>
       <c r="V102" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W102" t="s">
         <v>375</v>
@@ -9077,7 +9077,7 @@
         <v>365</v>
       </c>
       <c r="Y102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z102" s="1">
         <v>15</v>
@@ -9131,13 +9131,13 @@
         <v>369</v>
       </c>
       <c r="T103" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U103" t="s">
         <v>373</v>
       </c>
       <c r="V103" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W103" t="s">
         <v>375</v>
@@ -9146,7 +9146,7 @@
         <v>365</v>
       </c>
       <c r="Y103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z103" s="1">
         <v>16</v>
@@ -9203,13 +9203,13 @@
         <v>369</v>
       </c>
       <c r="T104" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U104" t="s">
         <v>373</v>
       </c>
       <c r="V104" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W104" t="s">
         <v>375</v>
@@ -9218,7 +9218,7 @@
         <v>365</v>
       </c>
       <c r="Y104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z104" s="1">
         <v>17</v>
@@ -9272,13 +9272,13 @@
         <v>369</v>
       </c>
       <c r="T105" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U105" t="s">
         <v>373</v>
       </c>
       <c r="V105" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W105" t="s">
         <v>375</v>
@@ -9287,7 +9287,7 @@
         <v>365</v>
       </c>
       <c r="Y105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z105" s="1">
         <v>18</v>
@@ -9344,13 +9344,13 @@
         <v>369</v>
       </c>
       <c r="T106" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U106" t="s">
         <v>373</v>
       </c>
       <c r="V106" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W106" t="s">
         <v>375</v>
@@ -9359,7 +9359,7 @@
         <v>365</v>
       </c>
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z106" s="1">
         <v>19</v>
@@ -9416,13 +9416,13 @@
         <v>369</v>
       </c>
       <c r="T107" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U107" t="s">
         <v>373</v>
       </c>
       <c r="V107" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W107" t="s">
         <v>375</v>
@@ -9431,7 +9431,7 @@
         <v>365</v>
       </c>
       <c r="Y107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z107" s="1">
         <v>20</v>
@@ -9485,13 +9485,13 @@
         <v>369</v>
       </c>
       <c r="T108" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U108" t="s">
         <v>373</v>
       </c>
       <c r="V108" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W108" t="s">
         <v>375</v>
@@ -9500,7 +9500,7 @@
         <v>365</v>
       </c>
       <c r="Y108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z108" s="1">
         <v>21</v>
@@ -9554,13 +9554,13 @@
         <v>369</v>
       </c>
       <c r="T109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U109" t="s">
         <v>373</v>
       </c>
       <c r="V109" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W109" t="s">
         <v>375</v>
@@ -9569,7 +9569,7 @@
         <v>365</v>
       </c>
       <c r="Y109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z109" s="1">
         <v>22</v>
@@ -9623,13 +9623,13 @@
         <v>369</v>
       </c>
       <c r="T110" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U110" t="s">
         <v>373</v>
       </c>
       <c r="V110" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W110" t="s">
         <v>375</v>
@@ -9638,7 +9638,7 @@
         <v>365</v>
       </c>
       <c r="Y110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z110" s="1">
         <v>23</v>
@@ -9692,13 +9692,13 @@
         <v>369</v>
       </c>
       <c r="T111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U111" t="s">
         <v>373</v>
       </c>
       <c r="V111" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W111" t="s">
         <v>375</v>
@@ -9707,7 +9707,7 @@
         <v>365</v>
       </c>
       <c r="Y111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z111" s="1">
         <v>24</v>
@@ -9761,13 +9761,13 @@
         <v>369</v>
       </c>
       <c r="T112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U112" t="s">
         <v>373</v>
       </c>
       <c r="V112" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W112" t="s">
         <v>375</v>
@@ -9776,7 +9776,7 @@
         <v>365</v>
       </c>
       <c r="Y112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z112" s="1">
         <v>25</v>
@@ -9830,13 +9830,13 @@
         <v>369</v>
       </c>
       <c r="T113" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U113" t="s">
         <v>373</v>
       </c>
       <c r="V113" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W113" t="s">
         <v>375</v>
@@ -9845,7 +9845,7 @@
         <v>365</v>
       </c>
       <c r="Y113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z113" s="1">
         <v>26</v>
@@ -9902,13 +9902,13 @@
         <v>369</v>
       </c>
       <c r="T114" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U114" t="s">
         <v>373</v>
       </c>
       <c r="V114" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W114" t="s">
         <v>375</v>
@@ -9917,7 +9917,7 @@
         <v>365</v>
       </c>
       <c r="Y114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z114" s="1">
         <v>27</v>
@@ -9974,13 +9974,13 @@
         <v>369</v>
       </c>
       <c r="T115" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U115" t="s">
         <v>373</v>
       </c>
       <c r="V115" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W115" t="s">
         <v>375</v>
@@ -9989,7 +9989,7 @@
         <v>365</v>
       </c>
       <c r="Y115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z115" s="1">
         <v>28</v>
@@ -10043,13 +10043,13 @@
         <v>369</v>
       </c>
       <c r="T116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U116" t="s">
         <v>373</v>
       </c>
       <c r="V116" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W116" t="s">
         <v>375</v>
@@ -10058,7 +10058,7 @@
         <v>365</v>
       </c>
       <c r="Y116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z116" s="1">
         <v>29</v>
@@ -10115,13 +10115,13 @@
         <v>369</v>
       </c>
       <c r="T117" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U117" t="s">
         <v>373</v>
       </c>
       <c r="V117" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W117" t="s">
         <v>375</v>
@@ -10130,7 +10130,7 @@
         <v>365</v>
       </c>
       <c r="Y117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z117" s="1">
         <v>30</v>
@@ -10184,13 +10184,13 @@
         <v>369</v>
       </c>
       <c r="T118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U118" t="s">
         <v>373</v>
       </c>
       <c r="V118" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W118" t="s">
         <v>375</v>
@@ -10199,7 +10199,7 @@
         <v>365</v>
       </c>
       <c r="Y118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Z118" s="1">
         <v>31</v>
@@ -10253,13 +10253,13 @@
         <v>369</v>
       </c>
       <c r="T119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U119" t="s">
         <v>373</v>
       </c>
       <c r="V119" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W119" t="s">
         <v>375</v>
@@ -10268,7 +10268,7 @@
         <v>365</v>
       </c>
       <c r="Y119" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z119" s="1">
         <v>1</v>
@@ -10325,13 +10325,13 @@
         <v>369</v>
       </c>
       <c r="T120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U120" t="s">
         <v>373</v>
       </c>
       <c r="V120" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W120" t="s">
         <v>375</v>
@@ -10340,7 +10340,7 @@
         <v>365</v>
       </c>
       <c r="Y120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z120" s="1">
         <v>2</v>
@@ -10397,13 +10397,13 @@
         <v>369</v>
       </c>
       <c r="T121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U121" t="s">
         <v>373</v>
       </c>
       <c r="V121" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W121" t="s">
         <v>375</v>
@@ -10412,7 +10412,7 @@
         <v>365</v>
       </c>
       <c r="Y121" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z121" s="1">
         <v>3</v>
@@ -10466,13 +10466,13 @@
         <v>369</v>
       </c>
       <c r="T122" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U122" t="s">
         <v>373</v>
       </c>
       <c r="V122" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W122" t="s">
         <v>375</v>
@@ -10481,7 +10481,7 @@
         <v>365</v>
       </c>
       <c r="Y122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z122" s="1">
         <v>4</v>
@@ -10535,13 +10535,13 @@
         <v>369</v>
       </c>
       <c r="T123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U123" t="s">
         <v>373</v>
       </c>
       <c r="V123" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W123" t="s">
         <v>375</v>
@@ -10550,7 +10550,7 @@
         <v>365</v>
       </c>
       <c r="Y123" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z123" s="1">
         <v>5</v>
@@ -10607,13 +10607,13 @@
         <v>369</v>
       </c>
       <c r="T124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U124" t="s">
         <v>373</v>
       </c>
       <c r="V124" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W124" t="s">
         <v>375</v>
@@ -10622,7 +10622,7 @@
         <v>365</v>
       </c>
       <c r="Y124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z124" s="1">
         <v>6</v>
@@ -10679,13 +10679,13 @@
         <v>369</v>
       </c>
       <c r="T125" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U125" t="s">
         <v>373</v>
       </c>
       <c r="V125" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W125" t="s">
         <v>375</v>
@@ -10694,7 +10694,7 @@
         <v>365</v>
       </c>
       <c r="Y125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z125" s="1">
         <v>7</v>
@@ -10751,13 +10751,13 @@
         <v>369</v>
       </c>
       <c r="T126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U126" t="s">
         <v>373</v>
       </c>
       <c r="V126" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W126" t="s">
         <v>375</v>
@@ -10766,7 +10766,7 @@
         <v>365</v>
       </c>
       <c r="Y126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z126" s="1">
         <v>8</v>
@@ -10823,13 +10823,13 @@
         <v>369</v>
       </c>
       <c r="T127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U127" t="s">
         <v>373</v>
       </c>
       <c r="V127" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W127" t="s">
         <v>375</v>
@@ -10838,7 +10838,7 @@
         <v>365</v>
       </c>
       <c r="Y127" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z127" s="1">
         <v>9</v>
@@ -10892,13 +10892,13 @@
         <v>369</v>
       </c>
       <c r="T128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U128" t="s">
         <v>373</v>
       </c>
       <c r="V128" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W128" t="s">
         <v>375</v>
@@ -10907,7 +10907,7 @@
         <v>365</v>
       </c>
       <c r="Y128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z128" s="1">
         <v>10</v>
@@ -10964,13 +10964,13 @@
         <v>369</v>
       </c>
       <c r="T129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U129" t="s">
         <v>373</v>
       </c>
       <c r="V129" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W129" t="s">
         <v>375</v>
@@ -10979,7 +10979,7 @@
         <v>365</v>
       </c>
       <c r="Y129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z129" s="1">
         <v>11</v>
@@ -11036,13 +11036,13 @@
         <v>369</v>
       </c>
       <c r="T130" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U130" t="s">
         <v>373</v>
       </c>
       <c r="V130" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W130" t="s">
         <v>375</v>
@@ -11051,7 +11051,7 @@
         <v>365</v>
       </c>
       <c r="Y130" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z130" s="1">
         <v>12</v>
@@ -11105,13 +11105,13 @@
         <v>369</v>
       </c>
       <c r="T131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U131" t="s">
         <v>373</v>
       </c>
       <c r="V131" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W131" t="s">
         <v>375</v>
@@ -11120,7 +11120,7 @@
         <v>365</v>
       </c>
       <c r="Y131" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z131" s="1">
         <v>13</v>
@@ -11174,13 +11174,13 @@
         <v>369</v>
       </c>
       <c r="T132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U132" t="s">
         <v>373</v>
       </c>
       <c r="V132" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W132" t="s">
         <v>375</v>
@@ -11189,7 +11189,7 @@
         <v>365</v>
       </c>
       <c r="Y132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z132" s="1">
         <v>14</v>
@@ -11246,13 +11246,13 @@
         <v>369</v>
       </c>
       <c r="T133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U133" t="s">
         <v>373</v>
       </c>
       <c r="V133" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W133" t="s">
         <v>375</v>
@@ -11261,7 +11261,7 @@
         <v>365</v>
       </c>
       <c r="Y133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z133" s="1">
         <v>15</v>
@@ -11318,13 +11318,13 @@
         <v>369</v>
       </c>
       <c r="T134" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U134" t="s">
         <v>373</v>
       </c>
       <c r="V134" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W134" t="s">
         <v>375</v>
@@ -11333,7 +11333,7 @@
         <v>365</v>
       </c>
       <c r="Y134" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z134" s="1">
         <v>16</v>
@@ -11390,13 +11390,13 @@
         <v>369</v>
       </c>
       <c r="T135" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U135" t="s">
         <v>373</v>
       </c>
       <c r="V135" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W135" t="s">
         <v>375</v>
@@ -11405,7 +11405,7 @@
         <v>365</v>
       </c>
       <c r="Y135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z135" s="1">
         <v>17</v>
@@ -11459,13 +11459,13 @@
         <v>369</v>
       </c>
       <c r="T136" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U136" t="s">
         <v>373</v>
       </c>
       <c r="V136" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W136" t="s">
         <v>375</v>
@@ -11474,7 +11474,7 @@
         <v>365</v>
       </c>
       <c r="Y136" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z136" s="1">
         <v>18</v>
@@ -11528,13 +11528,13 @@
         <v>369</v>
       </c>
       <c r="T137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U137" t="s">
         <v>373</v>
       </c>
       <c r="V137" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W137" t="s">
         <v>375</v>
@@ -11543,7 +11543,7 @@
         <v>365</v>
       </c>
       <c r="Y137" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z137" s="1">
         <v>1</v>
@@ -11600,13 +11600,13 @@
         <v>369</v>
       </c>
       <c r="T138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U138" t="s">
         <v>373</v>
       </c>
       <c r="V138" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="W138" t="s">
         <v>375</v>
@@ -11615,7 +11615,7 @@
         <v>365</v>
       </c>
       <c r="Y138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Z138" s="1">
         <v>2</v>
